--- a/dramatis_personae.xlsx
+++ b/dramatis_personae.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Abstract" sheetId="1" state="visible" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>Release date</t>
   </si>
   <si>
-    <t>2018-06-23 21:24:59.584573</t>
+    <t>2018-07-06 15:59:55.744085</t>
   </si>
   <si>
     <t>Dramatis Personae</t>
@@ -2584,10 +2584,64 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Addiction</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>Alien Upbringing</t>
+  </si>
+  <si>
+    <t>Ally</t>
+  </si>
+  <si>
+    <t>Cloistered</t>
+  </si>
+  <si>
+    <t>ot</t>
+  </si>
+  <si>
+    <t>Dark Secret</t>
+  </si>
+  <si>
+    <t>Heir</t>
+  </si>
+  <si>
+    <t>Infamous Family</t>
+  </si>
+  <si>
+    <t>Lost Worlder</t>
+  </si>
+  <si>
+    <t>Oath of Fealty</t>
+  </si>
+  <si>
+    <t>Obligation</t>
+  </si>
+  <si>
+    <t>Orphan</t>
+  </si>
+  <si>
     <t>Secrets</t>
   </si>
   <si>
-    <t>ba</t>
+    <t>Stigma</t>
+  </si>
+  <si>
+    <t>Vow of Celibacy</t>
+  </si>
+  <si>
+    <t>Vow of Poverty</t>
+  </si>
+  <si>
+    <t>Vow of Silence</t>
   </si>
   <si>
     <t>Well-Traveled</t>
@@ -2596,61 +2650,7 @@
     <t>Known Worlds</t>
   </si>
   <si>
-    <t>Heir</t>
-  </si>
-  <si>
-    <t>ot</t>
-  </si>
-  <si>
     <t>Major house Fief</t>
-  </si>
-  <si>
-    <t>Alien Upbringing</t>
-  </si>
-  <si>
-    <t>Ally</t>
-  </si>
-  <si>
-    <t>Dark Secret</t>
-  </si>
-  <si>
-    <t>Infamous Family</t>
-  </si>
-  <si>
-    <t>Lost Worlder</t>
-  </si>
-  <si>
-    <t>Oath of Fealty</t>
-  </si>
-  <si>
-    <t>Obligation</t>
-  </si>
-  <si>
-    <t>Orphan</t>
-  </si>
-  <si>
-    <t>Stigma</t>
-  </si>
-  <si>
-    <t>Vow of Celibacy</t>
-  </si>
-  <si>
-    <t>Cloistered</t>
-  </si>
-  <si>
-    <t>Addiction</t>
-  </si>
-  <si>
-    <t>Vow of Poverty</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>Vow of Silence</t>
-  </si>
-  <si>
-    <t>-4</t>
   </si>
 </sst>
 </file>
@@ -15829,25 +15829,27 @@
         <v>854</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>539</v>
       </c>
       <c r="C3" t="s">
         <v>855</v>
       </c>
-      <c r="D3" t="s"/>
+      <c r="D3" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>854</v>
+      </c>
+      <c r="B4" t="s">
         <v>856</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>855</v>
       </c>
       <c r="D4" t="s">
-        <v>857</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -15855,102 +15857,116 @@
         <v>854</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>857</v>
       </c>
       <c r="C5" t="s">
         <v>855</v>
       </c>
-      <c r="D5" t="s"/>
+      <c r="D5" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>858</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>855</v>
       </c>
-      <c r="D6" t="s"/>
+      <c r="D6" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>553</v>
       </c>
       <c r="C7" t="s">
-        <v>855</v>
-      </c>
-      <c r="D7" t="s"/>
+        <v>670</v>
+      </c>
+      <c r="D7" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>580</v>
       </c>
       <c r="C8" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D8" t="s">
-        <v>860</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>580</v>
       </c>
       <c r="C9" t="s">
         <v>855</v>
       </c>
-      <c r="D9" t="s"/>
+      <c r="D9" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>539</v>
       </c>
       <c r="C10" t="s">
         <v>855</v>
       </c>
-      <c r="D10" t="s"/>
+      <c r="D10" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="B11" t="s">
-        <v>553</v>
+        <v>856</v>
       </c>
       <c r="C11" t="s">
         <v>855</v>
       </c>
-      <c r="D11" t="s"/>
+      <c r="D11" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B12" t="s">
-        <v>553</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>670</v>
-      </c>
-      <c r="D12" t="s"/>
+        <v>855</v>
+      </c>
+      <c r="D12" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B13" t="s">
         <v>580</v>
@@ -15958,11 +15974,13 @@
       <c r="C13" t="s">
         <v>855</v>
       </c>
-      <c r="D13" t="s"/>
+      <c r="D13" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B14" t="s">
         <v>580</v>
@@ -15970,11 +15988,13 @@
       <c r="C14" t="s">
         <v>855</v>
       </c>
-      <c r="D14" t="s"/>
+      <c r="D14" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B15" t="s">
         <v>580</v>
@@ -15982,35 +16002,41 @@
       <c r="C15" t="s">
         <v>855</v>
       </c>
-      <c r="D15" t="s"/>
+      <c r="D15" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>866</v>
       </c>
       <c r="B16" t="s">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="C16" t="s">
         <v>855</v>
       </c>
-      <c r="D16" t="s"/>
+      <c r="D16" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B17" t="s">
-        <v>580</v>
+        <v>856</v>
       </c>
       <c r="C17" t="s">
         <v>855</v>
       </c>
-      <c r="D17" t="s"/>
+      <c r="D17" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B18" t="s">
         <v>580</v>
@@ -16018,211 +16044,247 @@
       <c r="C18" t="s">
         <v>855</v>
       </c>
-      <c r="D18" t="s"/>
+      <c r="D18" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B19" t="s">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="C19" t="s">
         <v>855</v>
       </c>
-      <c r="D19" t="s"/>
+      <c r="D19" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B20" t="s">
-        <v>580</v>
+        <v>856</v>
       </c>
       <c r="C20" t="s">
         <v>855</v>
       </c>
-      <c r="D20" t="s"/>
+      <c r="D20" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B21" t="s">
         <v>580</v>
       </c>
       <c r="C21" t="s">
-        <v>859</v>
-      </c>
-      <c r="D21" t="s"/>
+        <v>855</v>
+      </c>
+      <c r="D21" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B22" t="s">
-        <v>539</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>855</v>
       </c>
-      <c r="D22" t="s"/>
+      <c r="D22" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="B23" t="s">
-        <v>539</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
         <v>855</v>
       </c>
-      <c r="D23" t="s"/>
+      <c r="D23" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B24" t="s">
-        <v>539</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>855</v>
       </c>
-      <c r="D24" t="s"/>
+      <c r="D24" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B25" t="s">
-        <v>539</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
         <v>855</v>
       </c>
-      <c r="D25" t="s"/>
+      <c r="D25" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>869</v>
       </c>
       <c r="B26" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="C26" t="s">
         <v>855</v>
       </c>
-      <c r="D26" t="s"/>
+      <c r="D26" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B27" t="s">
-        <v>539</v>
+        <v>580</v>
       </c>
       <c r="C27" t="s">
         <v>855</v>
       </c>
-      <c r="D27" t="s"/>
+      <c r="D27" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B28" t="s">
-        <v>874</v>
+        <v>539</v>
       </c>
       <c r="C28" t="s">
         <v>855</v>
       </c>
-      <c r="D28" t="s"/>
+      <c r="D28" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="B29" t="s">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="C29" t="s">
         <v>855</v>
       </c>
-      <c r="D29" t="s"/>
+      <c r="D29" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="B30" t="s">
-        <v>874</v>
+        <v>857</v>
       </c>
       <c r="C30" t="s">
         <v>855</v>
       </c>
-      <c r="D30" t="s"/>
+      <c r="D30" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="B31" t="s">
-        <v>874</v>
+        <v>580</v>
       </c>
       <c r="C31" t="s">
         <v>855</v>
       </c>
-      <c r="D31" t="s"/>
+      <c r="D31" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B32" t="s">
-        <v>874</v>
+        <v>539</v>
       </c>
       <c r="C32" t="s">
         <v>855</v>
       </c>
-      <c r="D32" t="s"/>
+      <c r="D32" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B33" t="s">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="C33" t="s">
         <v>855</v>
       </c>
-      <c r="D33" t="s"/>
+      <c r="D33" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B34" t="s">
-        <v>876</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>855</v>
       </c>
-      <c r="D34" t="s"/>
+      <c r="D34" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>861</v>
+      </c>
+      <c r="D35" t="s">
         <v>876</v>
       </c>
-      <c r="C35" t="s">
-        <v>855</v>
-      </c>
-      <c r="D35" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/dramatis_personae.xlsx
+++ b/dramatis_personae.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Abstract" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1207">
   <si>
     <t>Source</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Release date</t>
   </si>
   <si>
-    <t>2018-07-06 15:59:55.744085</t>
+    <t>2018-07-15 14:20:11.704941</t>
   </si>
   <si>
     <t>Dramatis Personae</t>
@@ -2584,73 +2584,1063 @@
     <t>Value</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Addiction</t>
   </si>
   <si>
     <t>ba</t>
   </si>
   <si>
+    <t>238</t>
+  </si>
+  <si>
     <t>-3</t>
   </si>
   <si>
+    <t>239</t>
+  </si>
+  <si>
     <t>-4</t>
   </si>
   <si>
+    <t>Adept Robes</t>
+  </si>
+  <si>
+    <t>po</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
     <t>Alien Upbringing</t>
   </si>
   <si>
+    <t>241</t>
+  </si>
+  <si>
     <t>Ally</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>Article of Faith</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>17500</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>12500</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>7500</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>Barbarian</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>Black sheep</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>Branded</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
     <t>Cloistered</t>
   </si>
   <si>
-    <t>ot</t>
+    <t>242</t>
+  </si>
+  <si>
+    <t>Cohort Badge</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>Commission</t>
+  </si>
+  <si>
+    <t>Dean / Master / Dean / Colonel / Dean</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>Captain / Crafter / Jonin / Captain / Director</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>Consul  / Engineer / Consul / Major / Consul</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>Commander / Fellow / Boss / Lieutenant / Manager</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>Enseign / Apprentice / Associate / Private / Associate</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>Lieutenant / Entered / Genin / Sergeant / Chief</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>281</t>
   </si>
   <si>
     <t>Dark Secret</t>
   </si>
   <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>Dependent</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>Escaped Serf</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>Escaped Slave</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>Excommunicated</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>Fallen from Grace</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>491</t>
+  </si>
+  <si>
+    <t>Family Ties</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>Flux sword</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>Gossip Network</t>
+  </si>
+  <si>
+    <t>The Known Worlds</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>An entire Royale House’s holdings</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>Planetwide</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>City or Community</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
     <t>Heir</t>
   </si>
   <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>Householder</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>Imperial Charter</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>Indebted</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
     <t>Infamous Family</t>
   </si>
   <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>Jumpkey</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
     <t>Lost Worlder</t>
   </si>
   <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>Mist sword</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>Neural Disrupter</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>Knight (Minor house)</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
     <t>Oath of Fealty</t>
   </si>
   <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
     <t>Obligation</t>
   </si>
   <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>Ordained</t>
+  </si>
+  <si>
+    <t>Archbishop / Grand Master / Presbuteros</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>Bishop / Master / Magister</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>Priest / Adept / Philosophus</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>415</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>Deacon / Acolyte / Illuminatus</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>Canon / Oblate / Provost</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>Novitiate / Apprentice / Novitiate</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
     <t>Orphan</t>
   </si>
   <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>Outlaw</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>Passage Contract</t>
+  </si>
+  <si>
+    <t>Ship at your command</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>Luxury Liner</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>Stateroom</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>Tramp Freighter</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>Professional Contract</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>Protection</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>Psi Cloak</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>Refuge</t>
+  </si>
+  <si>
+    <t>Military Base</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>Castle</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>Monastery</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>Guild Safe House</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>Small Farm</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>Retinue</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>Saint’s Lore</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
     <t>Secrets</t>
   </si>
   <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
     <t>Stigma</t>
   </si>
   <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>Vendetta</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>Vestments</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
     <t>Vow of Celibacy</t>
   </si>
   <si>
+    <t>265</t>
+  </si>
+  <si>
     <t>Vow of Poverty</t>
   </si>
   <si>
+    <t>266</t>
+  </si>
+  <si>
     <t>Vow of Silence</t>
   </si>
   <si>
+    <t>267</t>
+  </si>
+  <si>
     <t>Well-Traveled</t>
   </si>
   <si>
     <t>Known Worlds</t>
   </si>
   <si>
+    <t>269</t>
+  </si>
+  <si>
     <t>Major house Fief</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>Wireblade</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>Wyrd Tabernacle</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>323</t>
   </si>
 </sst>
 </file>
@@ -15791,7 +16781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15803,14 +16793,15 @@
     <col customWidth="1" max="2" min="2" width="5"/>
     <col customWidth="1" max="3" min="3" width="10"/>
     <col customWidth="1" max="4" min="4" width="30"/>
+    <col customWidth="1" max="5" min="5" width="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>524</v>
       </c>
@@ -15823,467 +16814,4058 @@
       <c r="D2" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B3" t="s">
         <v>539</v>
       </c>
       <c r="C3" t="s">
+        <v>856</v>
+      </c>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>855</v>
       </c>
-      <c r="D3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>854</v>
-      </c>
       <c r="B4" t="s">
+        <v>858</v>
+      </c>
+      <c r="C4" t="s">
         <v>856</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s"/>
+      <c r="E4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>855</v>
       </c>
-      <c r="D4" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>854</v>
-      </c>
       <c r="B5" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C5" t="s">
-        <v>855</v>
-      </c>
-      <c r="D5" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>856</v>
+      </c>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C6" t="s">
+        <v>862</v>
+      </c>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>862</v>
+      </c>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>865</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
-        <v>855</v>
-      </c>
-      <c r="D6" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>859</v>
-      </c>
-      <c r="B7" t="s">
-        <v>553</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
+        <v>856</v>
+      </c>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>867</v>
+      </c>
+      <c r="B9" t="s">
+        <v>868</v>
+      </c>
+      <c r="C9" t="s">
         <v>670</v>
       </c>
-      <c r="D7" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>860</v>
-      </c>
-      <c r="B8" t="s">
-        <v>580</v>
-      </c>
-      <c r="C8" t="s">
-        <v>861</v>
-      </c>
-      <c r="D8" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>862</v>
-      </c>
-      <c r="B9" t="s">
-        <v>580</v>
-      </c>
-      <c r="C9" t="s">
-        <v>855</v>
-      </c>
-      <c r="D9" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" t="s"/>
+      <c r="E9" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="B10" t="s">
-        <v>539</v>
+        <v>429</v>
       </c>
       <c r="C10" t="s">
-        <v>855</v>
-      </c>
-      <c r="D10" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>670</v>
+      </c>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="B11" t="s">
-        <v>856</v>
+        <v>428</v>
       </c>
       <c r="C11" t="s">
-        <v>855</v>
-      </c>
-      <c r="D11" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>670</v>
+      </c>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>855</v>
-      </c>
-      <c r="D12" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>670</v>
+      </c>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B13" t="s">
-        <v>580</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>855</v>
-      </c>
-      <c r="D13" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>670</v>
+      </c>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B14" t="s">
-        <v>580</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>855</v>
-      </c>
-      <c r="D14" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>670</v>
+      </c>
+      <c r="D14" t="s"/>
+      <c r="E14" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B15" t="s">
-        <v>580</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>855</v>
-      </c>
-      <c r="D15" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>670</v>
+      </c>
+      <c r="D15" t="s"/>
+      <c r="E15" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B16" t="s">
-        <v>539</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>855</v>
-      </c>
-      <c r="D16" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>670</v>
+      </c>
+      <c r="D16" t="s"/>
+      <c r="E16" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B17" t="s">
-        <v>856</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>855</v>
-      </c>
-      <c r="D17" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>670</v>
+      </c>
+      <c r="D17" t="s"/>
+      <c r="E17" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>867</v>
       </c>
       <c r="B18" t="s">
-        <v>580</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>855</v>
-      </c>
-      <c r="D18" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>670</v>
+      </c>
+      <c r="D18" t="s"/>
+      <c r="E18" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>867</v>
       </c>
       <c r="B19" t="s">
+        <v>553</v>
+      </c>
+      <c r="C19" t="s">
+        <v>670</v>
+      </c>
+      <c r="D19" t="s"/>
+      <c r="E19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>878</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>862</v>
+      </c>
+      <c r="D20" t="s"/>
+      <c r="E20" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>878</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>862</v>
+      </c>
+      <c r="D21" t="s"/>
+      <c r="E21" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>878</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>862</v>
+      </c>
+      <c r="D22" t="s"/>
+      <c r="E22" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>878</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>862</v>
+      </c>
+      <c r="D23" t="s"/>
+      <c r="E23" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>878</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>862</v>
+      </c>
+      <c r="D24" t="s"/>
+      <c r="E24" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>878</v>
+      </c>
+      <c r="B25" t="s">
+        <v>553</v>
+      </c>
+      <c r="C25" t="s">
+        <v>862</v>
+      </c>
+      <c r="D25" t="s"/>
+      <c r="E25" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>885</v>
+      </c>
+      <c r="B26" t="s">
+        <v>868</v>
+      </c>
+      <c r="C26" t="s">
+        <v>862</v>
+      </c>
+      <c r="D26" t="s">
+        <v>886</v>
+      </c>
+      <c r="E26" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>885</v>
+      </c>
+      <c r="B27" t="s">
+        <v>429</v>
+      </c>
+      <c r="C27" t="s">
+        <v>862</v>
+      </c>
+      <c r="D27" t="s">
+        <v>888</v>
+      </c>
+      <c r="E27" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>885</v>
+      </c>
+      <c r="B28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C28" t="s">
+        <v>862</v>
+      </c>
+      <c r="D28" t="s">
+        <v>890</v>
+      </c>
+      <c r="E28" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>885</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>862</v>
+      </c>
+      <c r="D29" t="s">
+        <v>892</v>
+      </c>
+      <c r="E29" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>885</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>862</v>
+      </c>
+      <c r="D30" t="s">
+        <v>834</v>
+      </c>
+      <c r="E30" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>885</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>862</v>
+      </c>
+      <c r="D31" t="s">
+        <v>895</v>
+      </c>
+      <c r="E31" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>885</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>862</v>
+      </c>
+      <c r="D32" t="s">
+        <v>479</v>
+      </c>
+      <c r="E32" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>885</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>862</v>
+      </c>
+      <c r="D33" t="s">
+        <v>898</v>
+      </c>
+      <c r="E33" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>885</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>862</v>
+      </c>
+      <c r="D34" t="s">
+        <v>597</v>
+      </c>
+      <c r="E34" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>885</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>862</v>
+      </c>
+      <c r="D35" t="s">
+        <v>843</v>
+      </c>
+      <c r="E35" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>885</v>
+      </c>
+      <c r="B36" t="s">
+        <v>553</v>
+      </c>
+      <c r="C36" t="s">
+        <v>862</v>
+      </c>
+      <c r="D36" t="s">
+        <v>592</v>
+      </c>
+      <c r="E36" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>903</v>
+      </c>
+      <c r="B37" t="s">
         <v>539</v>
       </c>
-      <c r="C19" t="s">
-        <v>855</v>
-      </c>
-      <c r="D19" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>867</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C37" t="s">
+        <v>904</v>
+      </c>
+      <c r="D37" t="s"/>
+      <c r="E37" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>903</v>
+      </c>
+      <c r="B38" t="s">
+        <v>539</v>
+      </c>
+      <c r="C38" t="s">
+        <v>904</v>
+      </c>
+      <c r="D38" t="s"/>
+      <c r="E38" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>903</v>
+      </c>
+      <c r="B39" t="s">
+        <v>539</v>
+      </c>
+      <c r="C39" t="s">
+        <v>904</v>
+      </c>
+      <c r="D39" t="s"/>
+      <c r="E39" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>903</v>
+      </c>
+      <c r="B40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C40" t="s">
+        <v>904</v>
+      </c>
+      <c r="D40" t="s"/>
+      <c r="E40" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>909</v>
+      </c>
+      <c r="B41" t="s">
+        <v>580</v>
+      </c>
+      <c r="C41" t="s">
+        <v>904</v>
+      </c>
+      <c r="D41" t="s"/>
+      <c r="E41" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>909</v>
+      </c>
+      <c r="B42" t="s">
+        <v>580</v>
+      </c>
+      <c r="C42" t="s">
+        <v>904</v>
+      </c>
+      <c r="D42" t="s"/>
+      <c r="E42" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>909</v>
+      </c>
+      <c r="B43" t="s">
+        <v>580</v>
+      </c>
+      <c r="C43" t="s">
+        <v>904</v>
+      </c>
+      <c r="D43" t="s"/>
+      <c r="E43" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>909</v>
+      </c>
+      <c r="B44" t="s">
+        <v>539</v>
+      </c>
+      <c r="C44" t="s">
+        <v>904</v>
+      </c>
+      <c r="D44" t="s"/>
+      <c r="E44" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>909</v>
+      </c>
+      <c r="B45" t="s">
+        <v>539</v>
+      </c>
+      <c r="C45" t="s">
+        <v>904</v>
+      </c>
+      <c r="D45" t="s"/>
+      <c r="E45" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>909</v>
+      </c>
+      <c r="B46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C46" t="s">
+        <v>904</v>
+      </c>
+      <c r="D46" t="s"/>
+      <c r="E46" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>909</v>
+      </c>
+      <c r="B47" t="s">
+        <v>858</v>
+      </c>
+      <c r="C47" t="s">
+        <v>904</v>
+      </c>
+      <c r="D47" t="s"/>
+      <c r="E47" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>909</v>
+      </c>
+      <c r="B48" t="s">
+        <v>858</v>
+      </c>
+      <c r="C48" t="s">
+        <v>904</v>
+      </c>
+      <c r="D48" t="s"/>
+      <c r="E48" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>909</v>
+      </c>
+      <c r="B49" t="s">
+        <v>858</v>
+      </c>
+      <c r="C49" t="s">
+        <v>904</v>
+      </c>
+      <c r="D49" t="s"/>
+      <c r="E49" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>919</v>
+      </c>
+      <c r="B50" t="s">
+        <v>580</v>
+      </c>
+      <c r="C50" t="s">
+        <v>904</v>
+      </c>
+      <c r="D50" t="s"/>
+      <c r="E50" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>919</v>
+      </c>
+      <c r="B51" t="s">
+        <v>580</v>
+      </c>
+      <c r="C51" t="s">
+        <v>904</v>
+      </c>
+      <c r="D51" t="s"/>
+      <c r="E51" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>919</v>
+      </c>
+      <c r="B52" t="s">
+        <v>580</v>
+      </c>
+      <c r="C52" t="s">
+        <v>904</v>
+      </c>
+      <c r="D52" t="s"/>
+      <c r="E52" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>923</v>
+      </c>
+      <c r="B53" t="s">
+        <v>868</v>
+      </c>
+      <c r="C53" t="s">
+        <v>862</v>
+      </c>
+      <c r="D53" t="s">
+        <v>898</v>
+      </c>
+      <c r="E53" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>923</v>
+      </c>
+      <c r="B54" t="s">
+        <v>429</v>
+      </c>
+      <c r="C54" t="s">
+        <v>862</v>
+      </c>
+      <c r="D54" t="s">
+        <v>925</v>
+      </c>
+      <c r="E54" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>923</v>
+      </c>
+      <c r="B55" t="s">
+        <v>428</v>
+      </c>
+      <c r="C55" t="s">
+        <v>862</v>
+      </c>
+      <c r="D55" t="s">
+        <v>597</v>
+      </c>
+      <c r="E55" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>923</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" t="s">
+        <v>862</v>
+      </c>
+      <c r="D56" t="s">
+        <v>928</v>
+      </c>
+      <c r="E56" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>923</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
+        <v>862</v>
+      </c>
+      <c r="D57" t="s">
+        <v>843</v>
+      </c>
+      <c r="E57" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>923</v>
+      </c>
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" t="s">
+        <v>862</v>
+      </c>
+      <c r="D58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E58" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>923</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" t="s">
+        <v>862</v>
+      </c>
+      <c r="D59" t="s">
+        <v>592</v>
+      </c>
+      <c r="E59" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>923</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" t="s">
+        <v>862</v>
+      </c>
+      <c r="D60" t="s">
+        <v>841</v>
+      </c>
+      <c r="E60" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>923</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" t="s">
+        <v>862</v>
+      </c>
+      <c r="D61" t="s">
+        <v>836</v>
+      </c>
+      <c r="E61" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>923</v>
+      </c>
+      <c r="B62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" t="s">
+        <v>862</v>
+      </c>
+      <c r="D62" t="s">
+        <v>849</v>
+      </c>
+      <c r="E62" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>923</v>
+      </c>
+      <c r="B63" t="s">
+        <v>553</v>
+      </c>
+      <c r="C63" t="s">
+        <v>862</v>
+      </c>
+      <c r="D63" t="s">
+        <v>845</v>
+      </c>
+      <c r="E63" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>938</v>
+      </c>
+      <c r="B64" t="s">
+        <v>580</v>
+      </c>
+      <c r="C64" t="s">
         <v>856</v>
       </c>
-      <c r="C20" t="s">
-        <v>855</v>
-      </c>
-      <c r="D20" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="D64" t="s"/>
+      <c r="E64" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>940</v>
+      </c>
+      <c r="B65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" t="s">
+        <v>904</v>
+      </c>
+      <c r="D65" t="s"/>
+      <c r="E65" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>942</v>
+      </c>
+      <c r="B66" t="s">
         <v>868</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C66" t="s">
+        <v>904</v>
+      </c>
+      <c r="D66" t="s">
+        <v>943</v>
+      </c>
+      <c r="E66" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>942</v>
+      </c>
+      <c r="B67" t="s">
+        <v>428</v>
+      </c>
+      <c r="C67" t="s">
+        <v>904</v>
+      </c>
+      <c r="D67" t="s">
+        <v>945</v>
+      </c>
+      <c r="E67" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>942</v>
+      </c>
+      <c r="B68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" t="s">
+        <v>904</v>
+      </c>
+      <c r="D68" t="s">
+        <v>947</v>
+      </c>
+      <c r="E68" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>942</v>
+      </c>
+      <c r="B69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" t="s">
+        <v>904</v>
+      </c>
+      <c r="D69" t="s">
+        <v>949</v>
+      </c>
+      <c r="E69" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>942</v>
+      </c>
+      <c r="B70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" t="s">
+        <v>904</v>
+      </c>
+      <c r="D70" t="s">
+        <v>951</v>
+      </c>
+      <c r="E70" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>942</v>
+      </c>
+      <c r="B71" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" t="s">
+        <v>904</v>
+      </c>
+      <c r="D71" t="s">
+        <v>953</v>
+      </c>
+      <c r="E71" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>955</v>
+      </c>
+      <c r="B72" t="s">
+        <v>553</v>
+      </c>
+      <c r="C72" t="s">
+        <v>670</v>
+      </c>
+      <c r="D72" t="s"/>
+      <c r="E72" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>957</v>
+      </c>
+      <c r="B73" t="s">
         <v>580</v>
       </c>
-      <c r="C21" t="s">
-        <v>855</v>
-      </c>
-      <c r="D21" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>869</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>855</v>
-      </c>
-      <c r="D22" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>869</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>855</v>
-      </c>
-      <c r="D23" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>869</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>855</v>
-      </c>
-      <c r="D24" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>869</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C73" t="s">
+        <v>856</v>
+      </c>
+      <c r="D73" t="s"/>
+      <c r="E73" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>957</v>
+      </c>
+      <c r="B74" t="s">
+        <v>539</v>
+      </c>
+      <c r="C74" t="s">
+        <v>856</v>
+      </c>
+      <c r="D74" t="s"/>
+      <c r="E74" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>957</v>
+      </c>
+      <c r="B75" t="s">
+        <v>858</v>
+      </c>
+      <c r="C75" t="s">
+        <v>856</v>
+      </c>
+      <c r="D75" t="s"/>
+      <c r="E75" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>961</v>
+      </c>
+      <c r="B76" t="s">
+        <v>580</v>
+      </c>
+      <c r="C76" t="s">
+        <v>670</v>
+      </c>
+      <c r="D76" t="s"/>
+      <c r="E76" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>963</v>
+      </c>
+      <c r="B77" t="s">
+        <v>539</v>
+      </c>
+      <c r="C77" t="s">
+        <v>904</v>
+      </c>
+      <c r="D77" t="s"/>
+      <c r="E77" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>963</v>
+      </c>
+      <c r="B78" t="s">
+        <v>539</v>
+      </c>
+      <c r="C78" t="s">
+        <v>904</v>
+      </c>
+      <c r="D78" t="s"/>
+      <c r="E78" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>963</v>
+      </c>
+      <c r="B79" t="s">
+        <v>539</v>
+      </c>
+      <c r="C79" t="s">
+        <v>904</v>
+      </c>
+      <c r="D79" t="s"/>
+      <c r="E79" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>967</v>
+      </c>
+      <c r="B80" t="s">
+        <v>858</v>
+      </c>
+      <c r="C80" t="s">
+        <v>904</v>
+      </c>
+      <c r="D80" t="s"/>
+      <c r="E80" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>967</v>
+      </c>
+      <c r="B81" t="s">
+        <v>858</v>
+      </c>
+      <c r="C81" t="s">
+        <v>904</v>
+      </c>
+      <c r="D81" t="s"/>
+      <c r="E81" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>970</v>
+      </c>
+      <c r="B82" t="s">
+        <v>858</v>
+      </c>
+      <c r="C82" t="s">
+        <v>904</v>
+      </c>
+      <c r="D82" t="s"/>
+      <c r="E82" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>970</v>
+      </c>
+      <c r="B83" t="s">
+        <v>858</v>
+      </c>
+      <c r="C83" t="s">
+        <v>904</v>
+      </c>
+      <c r="D83" t="s"/>
+      <c r="E83" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>973</v>
+      </c>
+      <c r="B84" t="s">
+        <v>580</v>
+      </c>
+      <c r="C84" t="s">
+        <v>904</v>
+      </c>
+      <c r="D84" t="s"/>
+      <c r="E84" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>973</v>
+      </c>
+      <c r="B85" t="s">
+        <v>580</v>
+      </c>
+      <c r="C85" t="s">
+        <v>904</v>
+      </c>
+      <c r="D85" t="s"/>
+      <c r="E85" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>973</v>
+      </c>
+      <c r="B86" t="s">
+        <v>539</v>
+      </c>
+      <c r="C86" t="s">
+        <v>904</v>
+      </c>
+      <c r="D86" t="s"/>
+      <c r="E86" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>973</v>
+      </c>
+      <c r="B87" t="s">
+        <v>539</v>
+      </c>
+      <c r="C87" t="s">
+        <v>904</v>
+      </c>
+      <c r="D87" t="s"/>
+      <c r="E87" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>973</v>
+      </c>
+      <c r="B88" t="s">
+        <v>858</v>
+      </c>
+      <c r="C88" t="s">
+        <v>904</v>
+      </c>
+      <c r="D88" t="s"/>
+      <c r="E88" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>973</v>
+      </c>
+      <c r="B89" t="s">
+        <v>858</v>
+      </c>
+      <c r="C89" t="s">
+        <v>904</v>
+      </c>
+      <c r="D89" t="s"/>
+      <c r="E89" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>980</v>
+      </c>
+      <c r="B90" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" t="s">
+        <v>670</v>
+      </c>
+      <c r="D90" t="s"/>
+      <c r="E90" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>982</v>
+      </c>
+      <c r="B91" t="s">
+        <v>868</v>
+      </c>
+      <c r="C91" t="s">
+        <v>862</v>
+      </c>
+      <c r="D91" t="s"/>
+      <c r="E91" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>984</v>
+      </c>
+      <c r="B92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" t="s">
+        <v>670</v>
+      </c>
+      <c r="D92" t="s">
+        <v>985</v>
+      </c>
+      <c r="E92" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>984</v>
+      </c>
+      <c r="B93" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" t="s">
+        <v>670</v>
+      </c>
+      <c r="D93" t="s">
+        <v>987</v>
+      </c>
+      <c r="E93" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>984</v>
+      </c>
+      <c r="B94" t="s">
         <v>41</v>
       </c>
-      <c r="C25" t="s">
-        <v>855</v>
-      </c>
-      <c r="D25" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>869</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C94" t="s">
+        <v>670</v>
+      </c>
+      <c r="D94" t="s">
+        <v>989</v>
+      </c>
+      <c r="E94" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>984</v>
+      </c>
+      <c r="B95" t="s">
         <v>553</v>
       </c>
-      <c r="C26" t="s">
-        <v>855</v>
-      </c>
-      <c r="D26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>870</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C95" t="s">
+        <v>670</v>
+      </c>
+      <c r="D95" t="s">
+        <v>991</v>
+      </c>
+      <c r="E95" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>993</v>
+      </c>
+      <c r="B96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" t="s">
+        <v>856</v>
+      </c>
+      <c r="D96" t="s"/>
+      <c r="E96" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>995</v>
+      </c>
+      <c r="B97" t="s">
+        <v>553</v>
+      </c>
+      <c r="C97" t="s">
+        <v>904</v>
+      </c>
+      <c r="D97" t="s"/>
+      <c r="E97" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>995</v>
+      </c>
+      <c r="B98" t="s">
+        <v>553</v>
+      </c>
+      <c r="C98" t="s">
+        <v>904</v>
+      </c>
+      <c r="D98" t="s"/>
+      <c r="E98" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>995</v>
+      </c>
+      <c r="B99" t="s">
+        <v>553</v>
+      </c>
+      <c r="C99" t="s">
+        <v>904</v>
+      </c>
+      <c r="D99" t="s"/>
+      <c r="E99" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>995</v>
+      </c>
+      <c r="B100" t="s">
+        <v>553</v>
+      </c>
+      <c r="C100" t="s">
+        <v>904</v>
+      </c>
+      <c r="D100" t="s"/>
+      <c r="E100" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>999</v>
+      </c>
+      <c r="B101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" t="s">
+        <v>904</v>
+      </c>
+      <c r="D101" t="s"/>
+      <c r="E101" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>999</v>
+      </c>
+      <c r="B102" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" t="s">
+        <v>904</v>
+      </c>
+      <c r="D102" t="s"/>
+      <c r="E102" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>999</v>
+      </c>
+      <c r="B103" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" t="s">
+        <v>904</v>
+      </c>
+      <c r="D103" t="s"/>
+      <c r="E103" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>999</v>
+      </c>
+      <c r="B104" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" t="s">
+        <v>904</v>
+      </c>
+      <c r="D104" t="s"/>
+      <c r="E104" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B105" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" t="s">
+        <v>862</v>
+      </c>
+      <c r="D105" t="s"/>
+      <c r="E105" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B106" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" t="s">
+        <v>862</v>
+      </c>
+      <c r="D106" t="s"/>
+      <c r="E106" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B107" t="s">
+        <v>44</v>
+      </c>
+      <c r="C107" t="s">
+        <v>862</v>
+      </c>
+      <c r="D107" t="s"/>
+      <c r="E107" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B108" t="s">
+        <v>42</v>
+      </c>
+      <c r="C108" t="s">
+        <v>862</v>
+      </c>
+      <c r="D108" t="s"/>
+      <c r="E108" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B109" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" t="s">
+        <v>862</v>
+      </c>
+      <c r="D109" t="s"/>
+      <c r="E109" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B110" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110" t="s">
+        <v>862</v>
+      </c>
+      <c r="D110" t="s"/>
+      <c r="E110" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B111" t="s">
         <v>580</v>
       </c>
-      <c r="C27" t="s">
-        <v>855</v>
-      </c>
-      <c r="D27" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>870</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C111" t="s">
+        <v>856</v>
+      </c>
+      <c r="D111" t="s"/>
+      <c r="E111" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B112" t="s">
+        <v>41</v>
+      </c>
+      <c r="C112" t="s">
+        <v>862</v>
+      </c>
+      <c r="D112" t="s"/>
+      <c r="E112" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B113" t="s">
+        <v>580</v>
+      </c>
+      <c r="C113" t="s">
+        <v>856</v>
+      </c>
+      <c r="D113" t="s"/>
+      <c r="E113" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C114" t="s">
+        <v>862</v>
+      </c>
+      <c r="D114" t="s"/>
+      <c r="E114" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B115" t="s">
+        <v>429</v>
+      </c>
+      <c r="C115" t="s">
+        <v>862</v>
+      </c>
+      <c r="D115" t="s"/>
+      <c r="E115" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C116" t="s">
+        <v>904</v>
+      </c>
+      <c r="D116" t="s">
+        <v>157</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>66</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C117" t="s">
+        <v>904</v>
+      </c>
+      <c r="D117" t="s">
+        <v>157</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>66</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C118" t="s">
+        <v>904</v>
+      </c>
+      <c r="D118" t="s">
+        <v>157</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>66</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C119" t="s">
+        <v>904</v>
+      </c>
+      <c r="D119" t="s">
+        <v>157</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>66</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C120" t="s">
+        <v>904</v>
+      </c>
+      <c r="D120" t="s">
+        <v>157</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>66</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C121" t="s">
+        <v>904</v>
+      </c>
+      <c r="D121" t="s">
+        <v>157</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>66</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C122" t="s">
+        <v>904</v>
+      </c>
+      <c r="D122" t="s">
+        <v>157</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>66</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C123" t="s">
+        <v>904</v>
+      </c>
+      <c r="D123" t="s">
+        <v>157</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>66</v>
+      </c>
+      <c r="B124" t="s">
+        <v>868</v>
+      </c>
+      <c r="C124" t="s">
+        <v>904</v>
+      </c>
+      <c r="D124" t="s">
+        <v>184</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>66</v>
+      </c>
+      <c r="B125" t="s">
+        <v>868</v>
+      </c>
+      <c r="C125" t="s">
+        <v>904</v>
+      </c>
+      <c r="D125" t="s">
+        <v>184</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>66</v>
+      </c>
+      <c r="B126" t="s">
+        <v>868</v>
+      </c>
+      <c r="C126" t="s">
+        <v>904</v>
+      </c>
+      <c r="D126" t="s">
+        <v>184</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>66</v>
+      </c>
+      <c r="B127" t="s">
+        <v>868</v>
+      </c>
+      <c r="C127" t="s">
+        <v>904</v>
+      </c>
+      <c r="D127" t="s">
+        <v>184</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>66</v>
+      </c>
+      <c r="B128" t="s">
+        <v>429</v>
+      </c>
+      <c r="C128" t="s">
+        <v>904</v>
+      </c>
+      <c r="D128" t="s">
+        <v>184</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>66</v>
+      </c>
+      <c r="B129" t="s">
+        <v>428</v>
+      </c>
+      <c r="C129" t="s">
+        <v>904</v>
+      </c>
+      <c r="D129" t="s">
+        <v>293</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>66</v>
+      </c>
+      <c r="B130" t="s">
+        <v>46</v>
+      </c>
+      <c r="C130" t="s">
+        <v>904</v>
+      </c>
+      <c r="D130" t="s">
+        <v>293</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>66</v>
+      </c>
+      <c r="B131" t="s">
+        <v>43</v>
+      </c>
+      <c r="C131" t="s">
+        <v>904</v>
+      </c>
+      <c r="D131" t="s">
+        <v>133</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>66</v>
+      </c>
+      <c r="B132" t="s">
+        <v>45</v>
+      </c>
+      <c r="C132" t="s">
+        <v>904</v>
+      </c>
+      <c r="D132" t="s">
+        <v>133</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>66</v>
+      </c>
+      <c r="B133" t="s">
+        <v>44</v>
+      </c>
+      <c r="C133" t="s">
+        <v>904</v>
+      </c>
+      <c r="D133" t="s">
+        <v>82</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>66</v>
+      </c>
+      <c r="B134" t="s">
+        <v>42</v>
+      </c>
+      <c r="C134" t="s">
+        <v>904</v>
+      </c>
+      <c r="D134" t="s">
+        <v>82</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>66</v>
+      </c>
+      <c r="B135" t="s">
+        <v>53</v>
+      </c>
+      <c r="C135" t="s">
+        <v>904</v>
+      </c>
+      <c r="D135" t="s">
+        <v>144</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>66</v>
+      </c>
+      <c r="B136" t="s">
+        <v>41</v>
+      </c>
+      <c r="C136" t="s">
+        <v>904</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>66</v>
+      </c>
+      <c r="B137" t="s">
+        <v>553</v>
+      </c>
+      <c r="C137" t="s">
+        <v>904</v>
+      </c>
+      <c r="D137" t="s">
+        <v>274</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B138" t="s">
+        <v>580</v>
+      </c>
+      <c r="C138" t="s">
+        <v>856</v>
+      </c>
+      <c r="D138" t="s"/>
+      <c r="E138" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B139" t="s">
         <v>539</v>
       </c>
-      <c r="C28" t="s">
-        <v>855</v>
-      </c>
-      <c r="D28" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>870</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C139" t="s">
         <v>856</v>
       </c>
-      <c r="C29" t="s">
-        <v>855</v>
-      </c>
-      <c r="D29" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>870</v>
-      </c>
-      <c r="B30" t="s">
-        <v>857</v>
-      </c>
-      <c r="C30" t="s">
-        <v>855</v>
-      </c>
-      <c r="D30" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>871</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="D139" t="s"/>
+      <c r="E139" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B140" t="s">
+        <v>858</v>
+      </c>
+      <c r="C140" t="s">
+        <v>856</v>
+      </c>
+      <c r="D140" t="s"/>
+      <c r="E140" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B141" t="s">
         <v>580</v>
       </c>
-      <c r="C31" t="s">
-        <v>855</v>
-      </c>
-      <c r="D31" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>872</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C141" t="s">
+        <v>856</v>
+      </c>
+      <c r="D141" t="s"/>
+      <c r="E141" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B142" t="s">
         <v>539</v>
       </c>
-      <c r="C32" t="s">
-        <v>855</v>
-      </c>
-      <c r="D32" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>873</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C142" t="s">
         <v>856</v>
       </c>
-      <c r="C33" t="s">
-        <v>855</v>
-      </c>
-      <c r="D33" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>874</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>855</v>
-      </c>
-      <c r="D34" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>874</v>
-      </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" t="s">
-        <v>861</v>
-      </c>
-      <c r="D35" t="s">
-        <v>876</v>
+      <c r="D142" t="s"/>
+      <c r="E142" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B143" t="s">
+        <v>858</v>
+      </c>
+      <c r="C143" t="s">
+        <v>856</v>
+      </c>
+      <c r="D143" t="s"/>
+      <c r="E143" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C144" t="s">
+        <v>904</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C145" t="s">
+        <v>904</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C146" t="s">
+        <v>904</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C147" t="s">
+        <v>904</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B148" t="s">
+        <v>868</v>
+      </c>
+      <c r="C148" t="s">
+        <v>904</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B149" t="s">
+        <v>868</v>
+      </c>
+      <c r="C149" t="s">
+        <v>904</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B150" t="s">
+        <v>868</v>
+      </c>
+      <c r="C150" t="s">
+        <v>904</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B151" t="s">
+        <v>868</v>
+      </c>
+      <c r="C151" t="s">
+        <v>904</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B152" t="s">
+        <v>428</v>
+      </c>
+      <c r="C152" t="s">
+        <v>904</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B153" t="s">
+        <v>428</v>
+      </c>
+      <c r="C153" t="s">
+        <v>904</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B154" t="s">
+        <v>428</v>
+      </c>
+      <c r="C154" t="s">
+        <v>904</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B155" t="s">
+        <v>428</v>
+      </c>
+      <c r="C155" t="s">
+        <v>904</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B156" t="s">
+        <v>43</v>
+      </c>
+      <c r="C156" t="s">
+        <v>904</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B157" t="s">
+        <v>43</v>
+      </c>
+      <c r="C157" t="s">
+        <v>904</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B158" t="s">
+        <v>43</v>
+      </c>
+      <c r="C158" t="s">
+        <v>904</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B159" t="s">
+        <v>43</v>
+      </c>
+      <c r="C159" t="s">
+        <v>904</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B160" t="s">
+        <v>44</v>
+      </c>
+      <c r="C160" t="s">
+        <v>904</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B161" t="s">
+        <v>44</v>
+      </c>
+      <c r="C161" t="s">
+        <v>904</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B162" t="s">
+        <v>44</v>
+      </c>
+      <c r="C162" t="s">
+        <v>904</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B163" t="s">
+        <v>44</v>
+      </c>
+      <c r="C163" t="s">
+        <v>904</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B164" t="s">
+        <v>53</v>
+      </c>
+      <c r="C164" t="s">
+        <v>904</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B165" t="s">
+        <v>53</v>
+      </c>
+      <c r="C165" t="s">
+        <v>904</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B166" t="s">
+        <v>53</v>
+      </c>
+      <c r="C166" t="s">
+        <v>904</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B167" t="s">
+        <v>53</v>
+      </c>
+      <c r="C167" t="s">
+        <v>904</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B168" t="s">
+        <v>580</v>
+      </c>
+      <c r="C168" t="s">
+        <v>856</v>
+      </c>
+      <c r="D168" t="s"/>
+      <c r="E168" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B169" t="s">
+        <v>580</v>
+      </c>
+      <c r="C169" t="s">
+        <v>904</v>
+      </c>
+      <c r="D169" t="s"/>
+      <c r="E169" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B170" t="s">
+        <v>580</v>
+      </c>
+      <c r="C170" t="s">
+        <v>904</v>
+      </c>
+      <c r="D170" t="s"/>
+      <c r="E170" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B171" t="s">
+        <v>539</v>
+      </c>
+      <c r="C171" t="s">
+        <v>904</v>
+      </c>
+      <c r="D171" t="s"/>
+      <c r="E171" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B172" t="s">
+        <v>539</v>
+      </c>
+      <c r="C172" t="s">
+        <v>904</v>
+      </c>
+      <c r="D172" t="s"/>
+      <c r="E172" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B173" t="s">
+        <v>858</v>
+      </c>
+      <c r="C173" t="s">
+        <v>904</v>
+      </c>
+      <c r="D173" t="s"/>
+      <c r="E173" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B174" t="s">
+        <v>858</v>
+      </c>
+      <c r="C174" t="s">
+        <v>904</v>
+      </c>
+      <c r="D174" t="s"/>
+      <c r="E174" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B175" t="s">
+        <v>860</v>
+      </c>
+      <c r="C175" t="s">
+        <v>904</v>
+      </c>
+      <c r="D175" t="s"/>
+      <c r="E175" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B176" t="s">
+        <v>860</v>
+      </c>
+      <c r="C176" t="s">
+        <v>904</v>
+      </c>
+      <c r="D176" t="s"/>
+      <c r="E176" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B177" t="s">
+        <v>429</v>
+      </c>
+      <c r="C177" t="s">
+        <v>862</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B178" t="s">
+        <v>46</v>
+      </c>
+      <c r="C178" t="s">
+        <v>862</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B179" t="s">
+        <v>45</v>
+      </c>
+      <c r="C179" t="s">
+        <v>862</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E179" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B180" t="s">
+        <v>42</v>
+      </c>
+      <c r="C180" t="s">
+        <v>862</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B181" t="s">
+        <v>41</v>
+      </c>
+      <c r="C181" t="s">
+        <v>862</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B182" t="s">
+        <v>429</v>
+      </c>
+      <c r="C182" t="s">
+        <v>904</v>
+      </c>
+      <c r="D182" t="s"/>
+      <c r="E182" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B183" t="s">
+        <v>429</v>
+      </c>
+      <c r="C183" t="s">
+        <v>904</v>
+      </c>
+      <c r="D183" t="s"/>
+      <c r="E183" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B184" t="s">
+        <v>429</v>
+      </c>
+      <c r="C184" t="s">
+        <v>904</v>
+      </c>
+      <c r="D184" t="s"/>
+      <c r="E184" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B185" t="s">
+        <v>429</v>
+      </c>
+      <c r="C185" t="s">
+        <v>904</v>
+      </c>
+      <c r="D185" t="s"/>
+      <c r="E185" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B186" t="s">
+        <v>428</v>
+      </c>
+      <c r="C186" t="s">
+        <v>904</v>
+      </c>
+      <c r="D186" t="s"/>
+      <c r="E186" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B187" t="s">
+        <v>428</v>
+      </c>
+      <c r="C187" t="s">
+        <v>904</v>
+      </c>
+      <c r="D187" t="s"/>
+      <c r="E187" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B188" t="s">
+        <v>428</v>
+      </c>
+      <c r="C188" t="s">
+        <v>904</v>
+      </c>
+      <c r="D188" t="s"/>
+      <c r="E188" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B189" t="s">
+        <v>428</v>
+      </c>
+      <c r="C189" t="s">
+        <v>904</v>
+      </c>
+      <c r="D189" t="s"/>
+      <c r="E189" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B190" t="s">
+        <v>46</v>
+      </c>
+      <c r="C190" t="s">
+        <v>904</v>
+      </c>
+      <c r="D190" t="s"/>
+      <c r="E190" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B191" t="s">
+        <v>46</v>
+      </c>
+      <c r="C191" t="s">
+        <v>904</v>
+      </c>
+      <c r="D191" t="s"/>
+      <c r="E191" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B192" t="s">
+        <v>46</v>
+      </c>
+      <c r="C192" t="s">
+        <v>904</v>
+      </c>
+      <c r="D192" t="s"/>
+      <c r="E192" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B193" t="s">
+        <v>46</v>
+      </c>
+      <c r="C193" t="s">
+        <v>904</v>
+      </c>
+      <c r="D193" t="s"/>
+      <c r="E193" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B194" t="s">
+        <v>43</v>
+      </c>
+      <c r="C194" t="s">
+        <v>904</v>
+      </c>
+      <c r="D194" t="s"/>
+      <c r="E194" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B195" t="s">
+        <v>43</v>
+      </c>
+      <c r="C195" t="s">
+        <v>904</v>
+      </c>
+      <c r="D195" t="s"/>
+      <c r="E195" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B196" t="s">
+        <v>43</v>
+      </c>
+      <c r="C196" t="s">
+        <v>904</v>
+      </c>
+      <c r="D196" t="s"/>
+      <c r="E196" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B197" t="s">
+        <v>43</v>
+      </c>
+      <c r="C197" t="s">
+        <v>904</v>
+      </c>
+      <c r="D197" t="s"/>
+      <c r="E197" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B198" t="s">
+        <v>45</v>
+      </c>
+      <c r="C198" t="s">
+        <v>904</v>
+      </c>
+      <c r="D198" t="s"/>
+      <c r="E198" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B199" t="s">
+        <v>45</v>
+      </c>
+      <c r="C199" t="s">
+        <v>904</v>
+      </c>
+      <c r="D199" t="s"/>
+      <c r="E199" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B200" t="s">
+        <v>45</v>
+      </c>
+      <c r="C200" t="s">
+        <v>904</v>
+      </c>
+      <c r="D200" t="s"/>
+      <c r="E200" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B201" t="s">
+        <v>45</v>
+      </c>
+      <c r="C201" t="s">
+        <v>904</v>
+      </c>
+      <c r="D201" t="s"/>
+      <c r="E201" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B202" t="s">
+        <v>44</v>
+      </c>
+      <c r="C202" t="s">
+        <v>904</v>
+      </c>
+      <c r="D202" t="s"/>
+      <c r="E202" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B203" t="s">
+        <v>44</v>
+      </c>
+      <c r="C203" t="s">
+        <v>904</v>
+      </c>
+      <c r="D203" t="s"/>
+      <c r="E203" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B204" t="s">
+        <v>44</v>
+      </c>
+      <c r="C204" t="s">
+        <v>904</v>
+      </c>
+      <c r="D204" t="s"/>
+      <c r="E204" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B205" t="s">
+        <v>44</v>
+      </c>
+      <c r="C205" t="s">
+        <v>904</v>
+      </c>
+      <c r="D205" t="s"/>
+      <c r="E205" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B206" t="s">
+        <v>42</v>
+      </c>
+      <c r="C206" t="s">
+        <v>904</v>
+      </c>
+      <c r="D206" t="s"/>
+      <c r="E206" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B207" t="s">
+        <v>42</v>
+      </c>
+      <c r="C207" t="s">
+        <v>904</v>
+      </c>
+      <c r="D207" t="s"/>
+      <c r="E207" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B208" t="s">
+        <v>42</v>
+      </c>
+      <c r="C208" t="s">
+        <v>904</v>
+      </c>
+      <c r="D208" t="s"/>
+      <c r="E208" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B209" t="s">
+        <v>42</v>
+      </c>
+      <c r="C209" t="s">
+        <v>904</v>
+      </c>
+      <c r="D209" t="s"/>
+      <c r="E209" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B210" t="s">
+        <v>53</v>
+      </c>
+      <c r="C210" t="s">
+        <v>904</v>
+      </c>
+      <c r="D210" t="s"/>
+      <c r="E210" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B211" t="s">
+        <v>53</v>
+      </c>
+      <c r="C211" t="s">
+        <v>904</v>
+      </c>
+      <c r="D211" t="s"/>
+      <c r="E211" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B212" t="s">
+        <v>53</v>
+      </c>
+      <c r="C212" t="s">
+        <v>904</v>
+      </c>
+      <c r="D212" t="s"/>
+      <c r="E212" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B213" t="s">
+        <v>53</v>
+      </c>
+      <c r="C213" t="s">
+        <v>904</v>
+      </c>
+      <c r="D213" t="s"/>
+      <c r="E213" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B214" t="s">
+        <v>41</v>
+      </c>
+      <c r="C214" t="s">
+        <v>904</v>
+      </c>
+      <c r="D214" t="s"/>
+      <c r="E214" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B215" t="s">
+        <v>41</v>
+      </c>
+      <c r="C215" t="s">
+        <v>904</v>
+      </c>
+      <c r="D215" t="s"/>
+      <c r="E215" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B216" t="s">
+        <v>41</v>
+      </c>
+      <c r="C216" t="s">
+        <v>904</v>
+      </c>
+      <c r="D216" t="s"/>
+      <c r="E216" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B217" t="s">
+        <v>41</v>
+      </c>
+      <c r="C217" t="s">
+        <v>904</v>
+      </c>
+      <c r="D217" t="s"/>
+      <c r="E217" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B218" t="s">
+        <v>553</v>
+      </c>
+      <c r="C218" t="s">
+        <v>904</v>
+      </c>
+      <c r="D218" t="s"/>
+      <c r="E218" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B219" t="s">
+        <v>553</v>
+      </c>
+      <c r="C219" t="s">
+        <v>904</v>
+      </c>
+      <c r="D219" t="s"/>
+      <c r="E219" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B220" t="s">
+        <v>553</v>
+      </c>
+      <c r="C220" t="s">
+        <v>904</v>
+      </c>
+      <c r="D220" t="s"/>
+      <c r="E220" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B221" t="s">
+        <v>553</v>
+      </c>
+      <c r="C221" t="s">
+        <v>904</v>
+      </c>
+      <c r="D221" t="s"/>
+      <c r="E221" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B222" t="s">
+        <v>53</v>
+      </c>
+      <c r="C222" t="s">
+        <v>670</v>
+      </c>
+      <c r="D222" t="s"/>
+      <c r="E222" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B223" t="s">
+        <v>429</v>
+      </c>
+      <c r="C223" t="s">
+        <v>862</v>
+      </c>
+      <c r="D223" t="s"/>
+      <c r="E223" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B224" t="s">
+        <v>429</v>
+      </c>
+      <c r="C224" t="s">
+        <v>862</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B225" t="s">
+        <v>46</v>
+      </c>
+      <c r="C225" t="s">
+        <v>862</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B226" t="s">
+        <v>45</v>
+      </c>
+      <c r="C226" t="s">
+        <v>862</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B227" t="s">
+        <v>42</v>
+      </c>
+      <c r="C227" t="s">
+        <v>862</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B228" t="s">
+        <v>41</v>
+      </c>
+      <c r="C228" t="s">
+        <v>862</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B229" t="s">
+        <v>42</v>
+      </c>
+      <c r="C229" t="s">
+        <v>670</v>
+      </c>
+      <c r="D229" t="s"/>
+      <c r="E229" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B230" t="s">
+        <v>53</v>
+      </c>
+      <c r="C230" t="s">
+        <v>670</v>
+      </c>
+      <c r="D230" t="s"/>
+      <c r="E230" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B231" t="s">
+        <v>41</v>
+      </c>
+      <c r="C231" t="s">
+        <v>670</v>
+      </c>
+      <c r="D231" t="s"/>
+      <c r="E231" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B232" t="s">
+        <v>553</v>
+      </c>
+      <c r="C232" t="s">
+        <v>670</v>
+      </c>
+      <c r="D232" t="s"/>
+      <c r="E232" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B233" t="s">
+        <v>46</v>
+      </c>
+      <c r="C233" t="s">
+        <v>862</v>
+      </c>
+      <c r="D233" t="s"/>
+      <c r="E233" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B234" t="s">
+        <v>44</v>
+      </c>
+      <c r="C234" t="s">
+        <v>856</v>
+      </c>
+      <c r="D234" t="s"/>
+      <c r="E234" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B235" t="s">
+        <v>42</v>
+      </c>
+      <c r="C235" t="s">
+        <v>856</v>
+      </c>
+      <c r="D235" t="s"/>
+      <c r="E235" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B236" t="s">
+        <v>53</v>
+      </c>
+      <c r="C236" t="s">
+        <v>856</v>
+      </c>
+      <c r="D236" t="s"/>
+      <c r="E236" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B237" t="s">
+        <v>41</v>
+      </c>
+      <c r="C237" t="s">
+        <v>856</v>
+      </c>
+      <c r="D237" t="s"/>
+      <c r="E237" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B238" t="s">
+        <v>553</v>
+      </c>
+      <c r="C238" t="s">
+        <v>856</v>
+      </c>
+      <c r="D238" t="s"/>
+      <c r="E238" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B239" t="s">
+        <v>580</v>
+      </c>
+      <c r="C239" t="s">
+        <v>856</v>
+      </c>
+      <c r="D239" t="s"/>
+      <c r="E239" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B240" t="s">
+        <v>539</v>
+      </c>
+      <c r="C240" t="s">
+        <v>856</v>
+      </c>
+      <c r="D240" t="s"/>
+      <c r="E240" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B241" t="s">
+        <v>858</v>
+      </c>
+      <c r="C241" t="s">
+        <v>856</v>
+      </c>
+      <c r="D241" t="s"/>
+      <c r="E241" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B242" t="s">
+        <v>860</v>
+      </c>
+      <c r="C242" t="s">
+        <v>856</v>
+      </c>
+      <c r="D242" t="s"/>
+      <c r="E242" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B243" t="s">
+        <v>580</v>
+      </c>
+      <c r="C243" t="s">
+        <v>670</v>
+      </c>
+      <c r="D243" t="s"/>
+      <c r="E243" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B244" t="s">
+        <v>539</v>
+      </c>
+      <c r="C244" t="s">
+        <v>670</v>
+      </c>
+      <c r="D244" t="s"/>
+      <c r="E244" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B245" t="s">
+        <v>858</v>
+      </c>
+      <c r="C245" t="s">
+        <v>670</v>
+      </c>
+      <c r="D245" t="s"/>
+      <c r="E245" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B246" t="s">
+        <v>860</v>
+      </c>
+      <c r="C246" t="s">
+        <v>670</v>
+      </c>
+      <c r="D246" t="s"/>
+      <c r="E246" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B247" t="s">
+        <v>553</v>
+      </c>
+      <c r="C247" t="s">
+        <v>862</v>
+      </c>
+      <c r="D247" t="s"/>
+      <c r="E247" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B248" t="s">
+        <v>580</v>
+      </c>
+      <c r="C248" t="s">
+        <v>856</v>
+      </c>
+      <c r="D248" t="s"/>
+      <c r="E248" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B249" t="s">
+        <v>539</v>
+      </c>
+      <c r="C249" t="s">
+        <v>856</v>
+      </c>
+      <c r="D249" t="s"/>
+      <c r="E249" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B250" t="s">
+        <v>858</v>
+      </c>
+      <c r="C250" t="s">
+        <v>856</v>
+      </c>
+      <c r="D250" t="s"/>
+      <c r="E250" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B251" t="s">
+        <v>44</v>
+      </c>
+      <c r="C251" t="s">
+        <v>856</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E251" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B252" t="s">
+        <v>53</v>
+      </c>
+      <c r="C252" t="s">
+        <v>856</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E252" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C253" t="s">
+        <v>862</v>
+      </c>
+      <c r="D253" t="s"/>
+      <c r="E253" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B254" t="s">
+        <v>840</v>
+      </c>
+      <c r="C254" t="s">
+        <v>862</v>
+      </c>
+      <c r="D254" t="s"/>
+      <c r="E254" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C255" t="s">
+        <v>862</v>
+      </c>
+      <c r="D255" t="s"/>
+      <c r="E255" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B256" t="s">
+        <v>429</v>
+      </c>
+      <c r="C256" t="s">
+        <v>862</v>
+      </c>
+      <c r="D256" t="s"/>
+      <c r="E256" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B257" t="s">
+        <v>46</v>
+      </c>
+      <c r="C257" t="s">
+        <v>862</v>
+      </c>
+      <c r="D257" t="s"/>
+      <c r="E257" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B258" t="s">
+        <v>45</v>
+      </c>
+      <c r="C258" t="s">
+        <v>862</v>
+      </c>
+      <c r="D258" t="s"/>
+      <c r="E258" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B259" t="s">
+        <v>42</v>
+      </c>
+      <c r="C259" t="s">
+        <v>862</v>
+      </c>
+      <c r="D259" t="s"/>
+      <c r="E259" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B260" t="s">
+        <v>41</v>
+      </c>
+      <c r="C260" t="s">
+        <v>862</v>
+      </c>
+      <c r="D260" t="s"/>
+      <c r="E260" t="s">
+        <v>1206</v>
       </c>
     </row>
   </sheetData>

--- a/dramatis_personae.xlsx
+++ b/dramatis_personae.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1128">
   <si>
     <t>Source</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Release date</t>
   </si>
   <si>
-    <t>2018-07-15 14:20:11.704941</t>
+    <t>2018-08-01 22:33:06.980304</t>
   </si>
   <si>
     <t>Dramatis Personae</t>
@@ -2593,34 +2593,40 @@
     <t>ba</t>
   </si>
   <si>
-    <t>238</t>
+    <t>1446</t>
+  </si>
+  <si>
+    <t>FS2CRB</t>
   </si>
   <si>
     <t>-3</t>
   </si>
   <si>
-    <t>239</t>
+    <t>1447</t>
   </si>
   <si>
     <t>-4</t>
   </si>
   <si>
+    <t>1448</t>
+  </si>
+  <si>
     <t>Adept Robes</t>
   </si>
   <si>
     <t>po</t>
   </si>
   <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>308</t>
+    <t>1449</t>
+  </si>
+  <si>
+    <t>1450</t>
   </si>
   <si>
     <t>Alien Upbringing</t>
   </si>
   <si>
-    <t>241</t>
+    <t>1451</t>
   </si>
   <si>
     <t>Ally</t>
@@ -2629,52 +2635,58 @@
     <t>11</t>
   </si>
   <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>271</t>
+    <t>1452</t>
+  </si>
+  <si>
+    <t>1453</t>
+  </si>
+  <si>
+    <t>1454</t>
+  </si>
+  <si>
+    <t>1455</t>
+  </si>
+  <si>
+    <t>1456</t>
+  </si>
+  <si>
+    <t>1457</t>
+  </si>
+  <si>
+    <t>1458</t>
+  </si>
+  <si>
+    <t>1459</t>
+  </si>
+  <si>
+    <t>1460</t>
+  </si>
+  <si>
+    <t>1461</t>
+  </si>
+  <si>
+    <t>1462</t>
   </si>
   <si>
     <t>Article of Faith</t>
   </si>
   <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>315</t>
+    <t>1463</t>
+  </si>
+  <si>
+    <t>1464</t>
+  </si>
+  <si>
+    <t>1465</t>
+  </si>
+  <si>
+    <t>1466</t>
+  </si>
+  <si>
+    <t>1467</t>
+  </si>
+  <si>
+    <t>1468</t>
   </si>
   <si>
     <t>Assets</t>
@@ -2683,52 +2695,52 @@
     <t>20000</t>
   </si>
   <si>
-    <t>351</t>
+    <t>1469</t>
   </si>
   <si>
     <t>17500</t>
   </si>
   <si>
-    <t>350</t>
+    <t>1470</t>
   </si>
   <si>
     <t>15000</t>
   </si>
   <si>
-    <t>349</t>
+    <t>1471</t>
   </si>
   <si>
     <t>12500</t>
   </si>
   <si>
-    <t>348</t>
-  </si>
-  <si>
-    <t>347</t>
+    <t>1472</t>
+  </si>
+  <si>
+    <t>1473</t>
   </si>
   <si>
     <t>7500</t>
   </si>
   <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>345</t>
+    <t>1474</t>
+  </si>
+  <si>
+    <t>1475</t>
   </si>
   <si>
     <t>4000</t>
   </si>
   <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
-    <t>341</t>
+    <t>1476</t>
+  </si>
+  <si>
+    <t>1477</t>
+  </si>
+  <si>
+    <t>1478</t>
+  </si>
+  <si>
+    <t>1479</t>
   </si>
   <si>
     <t>Barbarian</t>
@@ -2737,115 +2749,82 @@
     <t>st</t>
   </si>
   <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>418</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>481</t>
+    <t>1480</t>
   </si>
   <si>
     <t>Black sheep</t>
   </si>
   <si>
-    <t>419</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>482</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>447</t>
-  </si>
-  <si>
-    <t>483</t>
-  </si>
-  <si>
-    <t>421</t>
-  </si>
-  <si>
-    <t>448</t>
-  </si>
-  <si>
-    <t>484</t>
+    <t>1481</t>
+  </si>
+  <si>
+    <t>1482</t>
+  </si>
+  <si>
+    <t>1483</t>
   </si>
   <si>
     <t>Branded</t>
   </si>
   <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>449</t>
-  </si>
-  <si>
-    <t>485</t>
+    <t>1484</t>
   </si>
   <si>
     <t>Cash</t>
   </si>
   <si>
-    <t>340</t>
+    <t>1485</t>
   </si>
   <si>
     <t>3500</t>
   </si>
   <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>338</t>
+    <t>1486</t>
+  </si>
+  <si>
+    <t>1487</t>
   </si>
   <si>
     <t>2500</t>
   </si>
   <si>
-    <t>337</t>
-  </si>
-  <si>
-    <t>336</t>
+    <t>1488</t>
+  </si>
+  <si>
+    <t>1489</t>
   </si>
   <si>
     <t>1500</t>
   </si>
   <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>330</t>
+    <t>1490</t>
+  </si>
+  <si>
+    <t>1491</t>
+  </si>
+  <si>
+    <t>1492</t>
+  </si>
+  <si>
+    <t>1493</t>
+  </si>
+  <si>
+    <t>1494</t>
+  </si>
+  <si>
+    <t>1495</t>
   </si>
   <si>
     <t>Cloistered</t>
   </si>
   <si>
-    <t>242</t>
+    <t>1496</t>
   </si>
   <si>
     <t>Cohort Badge</t>
   </si>
   <si>
-    <t>358</t>
+    <t>1497</t>
   </si>
   <si>
     <t>Commission</t>
@@ -2854,124 +2833,100 @@
     <t>Dean / Master / Dean / Colonel / Dean</t>
   </si>
   <si>
-    <t>363</t>
+    <t>1498</t>
   </si>
   <si>
     <t>Captain / Crafter / Jonin / Captain / Director</t>
   </si>
   <si>
-    <t>362</t>
+    <t>1499</t>
   </si>
   <si>
     <t>Consul  / Engineer / Consul / Major / Consul</t>
   </si>
   <si>
-    <t>361</t>
-  </si>
-  <si>
     <t>Commander / Fellow / Boss / Lieutenant / Manager</t>
   </si>
   <si>
-    <t>373</t>
+    <t>1501</t>
   </si>
   <si>
     <t>Enseign / Apprentice / Associate / Private / Associate</t>
   </si>
   <si>
-    <t>365</t>
+    <t>1502</t>
   </si>
   <si>
     <t>Lieutenant / Entered / Genin / Sergeant / Chief</t>
   </si>
   <si>
-    <t>371</t>
+    <t>1503</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>281</t>
+    <t>1504</t>
   </si>
   <si>
     <t>Dark Secret</t>
   </si>
   <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>245</t>
+    <t>1505</t>
+  </si>
+  <si>
+    <t>1506</t>
+  </si>
+  <si>
+    <t>1507</t>
   </si>
   <si>
     <t>Dependent</t>
   </si>
   <si>
-    <t>292</t>
+    <t>1508</t>
   </si>
   <si>
     <t>Escaped Serf</t>
   </si>
   <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>486</t>
+    <t>1509</t>
   </si>
   <si>
     <t>Escaped Slave</t>
   </si>
   <si>
-    <t>451</t>
-  </si>
-  <si>
-    <t>487</t>
+    <t>1510</t>
   </si>
   <si>
     <t>Excommunicated</t>
   </si>
   <si>
-    <t>452</t>
-  </si>
-  <si>
-    <t>488</t>
+    <t>1511</t>
   </si>
   <si>
     <t>Fallen from Grace</t>
   </si>
   <si>
-    <t>453</t>
-  </si>
-  <si>
-    <t>489</t>
-  </si>
-  <si>
-    <t>454</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>455</t>
-  </si>
-  <si>
-    <t>491</t>
+    <t>1512</t>
+  </si>
+  <si>
+    <t>1513</t>
+  </si>
+  <si>
+    <t>1514</t>
   </si>
   <si>
     <t>Family Ties</t>
   </si>
   <si>
-    <t>282</t>
+    <t>1515</t>
   </si>
   <si>
     <t>Flux sword</t>
   </si>
   <si>
-    <t>309</t>
+    <t>1516</t>
   </si>
   <si>
     <t>Gossip Network</t>
@@ -2980,97 +2935,82 @@
     <t>The Known Worlds</t>
   </si>
   <si>
-    <t>286</t>
+    <t>1517</t>
   </si>
   <si>
     <t>An entire Royale House’s holdings</t>
   </si>
   <si>
-    <t>285</t>
+    <t>1518</t>
   </si>
   <si>
     <t>Planetwide</t>
   </si>
   <si>
-    <t>284</t>
+    <t>1519</t>
   </si>
   <si>
     <t>City or Community</t>
   </si>
   <si>
-    <t>283</t>
+    <t>1520</t>
   </si>
   <si>
     <t>Heir</t>
   </si>
   <si>
-    <t>246</t>
+    <t>1521</t>
   </si>
   <si>
     <t>Householder</t>
   </si>
   <si>
-    <t>378</t>
-  </si>
-  <si>
-    <t>427</t>
-  </si>
-  <si>
-    <t>463</t>
+    <t>1522</t>
   </si>
   <si>
     <t>Imperial Charter</t>
   </si>
   <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>428</t>
-  </si>
-  <si>
-    <t>464</t>
+    <t>1523</t>
   </si>
   <si>
     <t>Indebted</t>
   </si>
   <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>352</t>
+    <t>1524</t>
+  </si>
+  <si>
+    <t>1525</t>
+  </si>
+  <si>
+    <t>1526</t>
+  </si>
+  <si>
+    <t>1527</t>
+  </si>
+  <si>
+    <t>1528</t>
+  </si>
+  <si>
+    <t>1529</t>
   </si>
   <si>
     <t>Infamous Family</t>
   </si>
   <si>
-    <t>247</t>
+    <t>1530</t>
   </si>
   <si>
     <t>Jumpkey</t>
   </si>
   <si>
-    <t>297</t>
+    <t>1531</t>
   </si>
   <si>
     <t>Lost Worlder</t>
   </si>
   <si>
-    <t>248</t>
+    <t>1532</t>
   </si>
   <si>
     <t>Mist sword</t>
@@ -3079,106 +3019,82 @@
     <t>13</t>
   </si>
   <si>
-    <t>310</t>
+    <t>1533</t>
   </si>
   <si>
     <t>Neural Disrupter</t>
   </si>
   <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>377</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>462</t>
+    <t>1534</t>
+  </si>
+  <si>
+    <t>1535</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>398</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>461</t>
-  </si>
-  <si>
-    <t>375</t>
-  </si>
-  <si>
-    <t>397</t>
-  </si>
-  <si>
-    <t>424</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>374</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>367</t>
-  </si>
-  <si>
-    <t>366</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>369</t>
+    <t>1536</t>
+  </si>
+  <si>
+    <t>1537</t>
+  </si>
+  <si>
+    <t>1538</t>
+  </si>
+  <si>
+    <t>1539</t>
+  </si>
+  <si>
+    <t>1540</t>
+  </si>
+  <si>
+    <t>1541</t>
+  </si>
+  <si>
+    <t>1542</t>
+  </si>
+  <si>
+    <t>1543</t>
+  </si>
+  <si>
+    <t>1544</t>
+  </si>
+  <si>
+    <t>1545</t>
   </si>
   <si>
     <t>Knight (Minor house)</t>
   </si>
   <si>
-    <t>364</t>
-  </si>
-  <si>
-    <t>368</t>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>1547</t>
   </si>
   <si>
     <t>Oath of Fealty</t>
   </si>
   <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>251</t>
+    <t>1548</t>
+  </si>
+  <si>
+    <t>1549</t>
+  </si>
+  <si>
+    <t>1550</t>
   </si>
   <si>
     <t>Obligation</t>
   </si>
   <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>254</t>
+    <t>1551</t>
+  </si>
+  <si>
+    <t>1552</t>
+  </si>
+  <si>
+    <t>1553</t>
   </si>
   <si>
     <t>Ordained</t>
@@ -3187,124 +3103,58 @@
     <t>Archbishop / Grand Master / Presbuteros</t>
   </si>
   <si>
-    <t>395</t>
-  </si>
-  <si>
-    <t>417</t>
-  </si>
-  <si>
-    <t>444</t>
-  </si>
-  <si>
-    <t>480</t>
+    <t>1554</t>
   </si>
   <si>
     <t>Bishop / Master / Magister</t>
   </si>
   <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>416</t>
-  </si>
-  <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>479</t>
+    <t>1555</t>
   </si>
   <si>
     <t>Priest / Adept / Philosophus</t>
   </si>
   <si>
-    <t>393</t>
-  </si>
-  <si>
-    <t>415</t>
-  </si>
-  <si>
-    <t>442</t>
-  </si>
-  <si>
-    <t>478</t>
+    <t>1556</t>
   </si>
   <si>
     <t>Deacon / Acolyte / Illuminatus</t>
   </si>
   <si>
-    <t>392</t>
-  </si>
-  <si>
-    <t>414</t>
-  </si>
-  <si>
-    <t>441</t>
-  </si>
-  <si>
-    <t>477</t>
+    <t>1557</t>
   </si>
   <si>
     <t>Canon / Oblate / Provost</t>
   </si>
   <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>413</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>476</t>
+    <t>1558</t>
   </si>
   <si>
     <t>Novitiate / Apprentice / Novitiate</t>
   </si>
   <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>412</t>
-  </si>
-  <si>
-    <t>439</t>
-  </si>
-  <si>
-    <t>475</t>
+    <t>1559</t>
   </si>
   <si>
     <t>Orphan</t>
   </si>
   <si>
-    <t>255</t>
+    <t>1560</t>
   </si>
   <si>
     <t>Outlaw</t>
   </si>
   <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>492</t>
-  </si>
-  <si>
-    <t>457</t>
-  </si>
-  <si>
-    <t>493</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>494</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>495</t>
+    <t>1561</t>
+  </si>
+  <si>
+    <t>1562</t>
+  </si>
+  <si>
+    <t>1563</t>
+  </si>
+  <si>
+    <t>1564</t>
   </si>
   <si>
     <t>Passage Contract</t>
@@ -3313,163 +3163,76 @@
     <t>Ship at your command</t>
   </si>
   <si>
-    <t>302</t>
+    <t>1565</t>
   </si>
   <si>
     <t>Luxury Liner</t>
   </si>
   <si>
-    <t>301</t>
+    <t>1566</t>
   </si>
   <si>
     <t>Stateroom</t>
   </si>
   <si>
+    <t>1567</t>
+  </si>
+  <si>
     <t>Transport</t>
   </si>
   <si>
-    <t>299</t>
+    <t>1568</t>
   </si>
   <si>
     <t>Tramp Freighter</t>
   </si>
   <si>
-    <t>298</t>
+    <t>1569</t>
   </si>
   <si>
     <t>Professional Contract</t>
   </si>
   <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>411</t>
-  </si>
-  <si>
-    <t>438</t>
-  </si>
-  <si>
-    <t>474</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>409</t>
-  </si>
-  <si>
-    <t>436</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>386</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>435</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>385</t>
-  </si>
-  <si>
-    <t>407</t>
-  </si>
-  <si>
-    <t>434</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>433</t>
-  </si>
-  <si>
-    <t>469</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>468</t>
-  </si>
-  <si>
-    <t>382</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>467</t>
-  </si>
-  <si>
-    <t>381</t>
-  </si>
-  <si>
-    <t>403</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>466</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>402</t>
-  </si>
-  <si>
-    <t>429</t>
-  </si>
-  <si>
-    <t>465</t>
+    <t>1570</t>
+  </si>
+  <si>
+    <t>1571</t>
+  </si>
+  <si>
+    <t>1572</t>
+  </si>
+  <si>
+    <t>1573</t>
+  </si>
+  <si>
+    <t>1574</t>
+  </si>
+  <si>
+    <t>1575</t>
+  </si>
+  <si>
+    <t>1576</t>
+  </si>
+  <si>
+    <t>1577</t>
+  </si>
+  <si>
+    <t>1578</t>
+  </si>
+  <si>
+    <t>1579</t>
   </si>
   <si>
     <t>Protection</t>
   </si>
   <si>
-    <t>287</t>
+    <t>1580</t>
   </si>
   <si>
     <t>Psi Cloak</t>
   </si>
   <si>
-    <t>312</t>
+    <t>1581</t>
   </si>
   <si>
     <t>Refuge</t>
@@ -3478,124 +3241,124 @@
     <t>Military Base</t>
   </si>
   <si>
-    <t>307</t>
+    <t>1582</t>
   </si>
   <si>
     <t>Castle</t>
   </si>
   <si>
-    <t>306</t>
+    <t>1583</t>
   </si>
   <si>
     <t>Monastery</t>
   </si>
   <si>
-    <t>305</t>
+    <t>1584</t>
   </si>
   <si>
     <t>Guild Safe House</t>
   </si>
   <si>
-    <t>304</t>
+    <t>1585</t>
   </si>
   <si>
     <t>Small Farm</t>
   </si>
   <si>
-    <t>303</t>
+    <t>1586</t>
   </si>
   <si>
     <t>Retinue</t>
   </si>
   <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>288</t>
+    <t>1587</t>
+  </si>
+  <si>
+    <t>1588</t>
+  </si>
+  <si>
+    <t>1589</t>
+  </si>
+  <si>
+    <t>1590</t>
   </si>
   <si>
     <t>Saint’s Lore</t>
   </si>
   <si>
-    <t>321</t>
+    <t>1591</t>
   </si>
   <si>
     <t>Secrets</t>
   </si>
   <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>256</t>
+    <t>1592</t>
+  </si>
+  <si>
+    <t>1593</t>
+  </si>
+  <si>
+    <t>1594</t>
+  </si>
+  <si>
+    <t>1595</t>
+  </si>
+  <si>
+    <t>1596</t>
   </si>
   <si>
     <t>Stigma</t>
   </si>
   <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>264</t>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>1598</t>
+  </si>
+  <si>
+    <t>1599</t>
+  </si>
+  <si>
+    <t>1600</t>
   </si>
   <si>
     <t>Vendetta</t>
   </si>
   <si>
-    <t>293</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>296</t>
+    <t>1601</t>
+  </si>
+  <si>
+    <t>1602</t>
+  </si>
+  <si>
+    <t>1603</t>
+  </si>
+  <si>
+    <t>1604</t>
   </si>
   <si>
     <t>Vestments</t>
   </si>
   <si>
-    <t>322</t>
+    <t>1605</t>
   </si>
   <si>
     <t>Vow of Celibacy</t>
   </si>
   <si>
-    <t>265</t>
+    <t>1606</t>
   </si>
   <si>
     <t>Vow of Poverty</t>
   </si>
   <si>
-    <t>266</t>
+    <t>1607</t>
   </si>
   <si>
     <t>Vow of Silence</t>
   </si>
   <si>
-    <t>267</t>
+    <t>1608</t>
   </si>
   <si>
     <t>Well-Traveled</t>
@@ -3604,43 +3367,43 @@
     <t>Known Worlds</t>
   </si>
   <si>
-    <t>269</t>
+    <t>1609</t>
   </si>
   <si>
     <t>Major house Fief</t>
   </si>
   <si>
-    <t>268</t>
+    <t>1610</t>
   </si>
   <si>
     <t>Wireblade</t>
   </si>
   <si>
-    <t>313</t>
+    <t>1611</t>
   </si>
   <si>
     <t>Wyrd Tabernacle</t>
   </si>
   <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>324</t>
-  </si>
-  <si>
-    <t>323</t>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1613</t>
+  </si>
+  <si>
+    <t>1614</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
+    <t>1616</t>
+  </si>
+  <si>
+    <t>1617</t>
+  </si>
+  <si>
+    <t>1618</t>
   </si>
 </sst>
 </file>
@@ -16781,7 +16544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E260"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16792,16 +16555,17 @@
     <col customWidth="1" max="1" min="1" width="30"/>
     <col customWidth="1" max="2" min="2" width="5"/>
     <col customWidth="1" max="3" min="3" width="10"/>
-    <col customWidth="1" max="4" min="4" width="30"/>
+    <col customWidth="1" max="4" min="4" width="60"/>
     <col customWidth="1" max="5" min="5" width="5"/>
+    <col customWidth="1" max="6" min="6" width="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>524</v>
       </c>
@@ -16817,8 +16581,11 @@
       <c r="E2" s="2" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>855</v>
       </c>
@@ -16832,53 +16599,65 @@
       <c r="E3" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>855</v>
       </c>
       <c r="B4" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C4" t="s">
         <v>856</v>
       </c>
       <c r="D4" t="s"/>
       <c r="E4" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>860</v>
+      </c>
+      <c r="F4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>855</v>
       </c>
       <c r="B5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C5" t="s">
         <v>856</v>
       </c>
       <c r="D5" t="s"/>
       <c r="E5" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>862</v>
+      </c>
+      <c r="F5" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B6" t="s">
         <v>591</v>
       </c>
       <c r="C6" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D6" t="s"/>
       <c r="E6" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>865</v>
+      </c>
+      <c r="F6" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -16886,16 +16665,19 @@
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D7" t="s"/>
       <c r="E7" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>866</v>
+      </c>
+      <c r="F7" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -16905,27 +16687,33 @@
       </c>
       <c r="D8" t="s"/>
       <c r="E8" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>868</v>
+      </c>
+      <c r="F8" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B9" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C9" t="s">
         <v>670</v>
       </c>
       <c r="D9" t="s"/>
       <c r="E9" t="s">
+        <v>871</v>
+      </c>
+      <c r="F9" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>869</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>867</v>
       </c>
       <c r="B10" t="s">
         <v>429</v>
@@ -16935,12 +16723,15 @@
       </c>
       <c r="D10" t="s"/>
       <c r="E10" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>872</v>
+      </c>
+      <c r="F10" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B11" t="s">
         <v>428</v>
@@ -16950,12 +16741,15 @@
       </c>
       <c r="D11" t="s"/>
       <c r="E11" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>873</v>
+      </c>
+      <c r="F11" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -16965,12 +16759,15 @@
       </c>
       <c r="D12" t="s"/>
       <c r="E12" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>874</v>
+      </c>
+      <c r="F12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
@@ -16980,12 +16777,15 @@
       </c>
       <c r="D13" t="s"/>
       <c r="E13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>875</v>
+      </c>
+      <c r="F13" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
@@ -16995,12 +16795,15 @@
       </c>
       <c r="D14" t="s"/>
       <c r="E14" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>876</v>
+      </c>
+      <c r="F14" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
@@ -17010,12 +16813,15 @@
       </c>
       <c r="D15" t="s"/>
       <c r="E15" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>877</v>
+      </c>
+      <c r="F15" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -17025,12 +16831,15 @@
       </c>
       <c r="D16" t="s"/>
       <c r="E16" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>878</v>
+      </c>
+      <c r="F16" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -17040,12 +16849,15 @@
       </c>
       <c r="D17" t="s"/>
       <c r="E17" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>879</v>
+      </c>
+      <c r="F17" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
@@ -17055,12 +16867,15 @@
       </c>
       <c r="D18" t="s"/>
       <c r="E18" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>880</v>
+      </c>
+      <c r="F18" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B19" t="s">
         <v>553</v>
@@ -17070,3802 +16885,2944 @@
       </c>
       <c r="D19" t="s"/>
       <c r="E19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>881</v>
+      </c>
+      <c r="F19" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D20" t="s"/>
       <c r="E20" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>883</v>
+      </c>
+      <c r="F20" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D21" t="s"/>
       <c r="E21" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>884</v>
+      </c>
+      <c r="F21" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D22" t="s"/>
       <c r="E22" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>885</v>
+      </c>
+      <c r="F22" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D23" t="s"/>
       <c r="E23" t="s">
+        <v>886</v>
+      </c>
+      <c r="F23" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
         <v>882</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>878</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D24" t="s"/>
       <c r="E24" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>887</v>
+      </c>
+      <c r="F24" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="B25" t="s">
         <v>553</v>
       </c>
       <c r="C25" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D25" t="s"/>
       <c r="E25" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>888</v>
+      </c>
+      <c r="F25" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B26" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C26" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D26" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="E26" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>891</v>
+      </c>
+      <c r="F26" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B27" t="s">
         <v>429</v>
       </c>
       <c r="C27" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D27" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="E27" t="s">
+        <v>893</v>
+      </c>
+      <c r="F27" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
         <v>889</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>885</v>
       </c>
       <c r="B28" t="s">
         <v>428</v>
       </c>
       <c r="C28" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D28" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E28" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>895</v>
+      </c>
+      <c r="F28" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B29" t="s">
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D29" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="E29" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>897</v>
+      </c>
+      <c r="F29" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D30" t="s">
         <v>834</v>
       </c>
       <c r="E30" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>898</v>
+      </c>
+      <c r="F30" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B31" t="s">
         <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D31" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="E31" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>900</v>
+      </c>
+      <c r="F31" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B32" t="s">
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D32" t="s">
         <v>479</v>
       </c>
       <c r="E32" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>901</v>
+      </c>
+      <c r="F32" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D33" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E33" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>903</v>
+      </c>
+      <c r="F33" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B34" t="s">
         <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D34" t="s">
         <v>597</v>
       </c>
       <c r="E34" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>904</v>
+      </c>
+      <c r="F34" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D35" t="s">
         <v>843</v>
       </c>
       <c r="E35" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>905</v>
+      </c>
+      <c r="F35" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B36" t="s">
         <v>553</v>
       </c>
       <c r="C36" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D36" t="s">
         <v>592</v>
       </c>
       <c r="E36" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>906</v>
+      </c>
+      <c r="F36" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B37" t="s">
         <v>539</v>
       </c>
       <c r="C37" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="D37" t="s"/>
       <c r="E37" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>909</v>
+      </c>
+      <c r="F37" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="B38" t="s">
-        <v>539</v>
+        <v>580</v>
       </c>
       <c r="C38" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="D38" t="s"/>
       <c r="E38" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>911</v>
+      </c>
+      <c r="F38" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="B39" t="s">
         <v>539</v>
       </c>
       <c r="C39" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="D39" t="s"/>
       <c r="E39" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>912</v>
+      </c>
+      <c r="F39" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="B40" t="s">
-        <v>539</v>
+        <v>859</v>
       </c>
       <c r="C40" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="D40" t="s"/>
       <c r="E40" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>913</v>
+      </c>
+      <c r="F40" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="B41" t="s">
         <v>580</v>
       </c>
       <c r="C41" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="D41" t="s"/>
       <c r="E41" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>915</v>
+      </c>
+      <c r="F41" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="B42" t="s">
+        <v>870</v>
+      </c>
+      <c r="C42" t="s">
+        <v>864</v>
+      </c>
+      <c r="D42" t="s">
+        <v>902</v>
+      </c>
+      <c r="E42" t="s">
+        <v>917</v>
+      </c>
+      <c r="F42" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>916</v>
+      </c>
+      <c r="B43" t="s">
+        <v>429</v>
+      </c>
+      <c r="C43" t="s">
+        <v>864</v>
+      </c>
+      <c r="D43" t="s">
+        <v>918</v>
+      </c>
+      <c r="E43" t="s">
+        <v>919</v>
+      </c>
+      <c r="F43" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>916</v>
+      </c>
+      <c r="B44" t="s">
+        <v>428</v>
+      </c>
+      <c r="C44" t="s">
+        <v>864</v>
+      </c>
+      <c r="D44" t="s">
+        <v>597</v>
+      </c>
+      <c r="E44" t="s">
+        <v>920</v>
+      </c>
+      <c r="F44" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>916</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>864</v>
+      </c>
+      <c r="D45" t="s">
+        <v>921</v>
+      </c>
+      <c r="E45" t="s">
+        <v>922</v>
+      </c>
+      <c r="F45" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>916</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>864</v>
+      </c>
+      <c r="D46" t="s">
+        <v>843</v>
+      </c>
+      <c r="E46" t="s">
+        <v>923</v>
+      </c>
+      <c r="F46" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>916</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>864</v>
+      </c>
+      <c r="D47" t="s">
+        <v>924</v>
+      </c>
+      <c r="E47" t="s">
+        <v>925</v>
+      </c>
+      <c r="F47" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>916</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>864</v>
+      </c>
+      <c r="D48" t="s">
+        <v>592</v>
+      </c>
+      <c r="E48" t="s">
+        <v>926</v>
+      </c>
+      <c r="F48" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>916</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" t="s">
+        <v>864</v>
+      </c>
+      <c r="D49" t="s">
+        <v>841</v>
+      </c>
+      <c r="E49" t="s">
+        <v>927</v>
+      </c>
+      <c r="F49" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>916</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>864</v>
+      </c>
+      <c r="D50" t="s">
+        <v>836</v>
+      </c>
+      <c r="E50" t="s">
+        <v>928</v>
+      </c>
+      <c r="F50" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>916</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" t="s">
+        <v>864</v>
+      </c>
+      <c r="D51" t="s">
+        <v>849</v>
+      </c>
+      <c r="E51" t="s">
+        <v>929</v>
+      </c>
+      <c r="F51" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>916</v>
+      </c>
+      <c r="B52" t="s">
+        <v>553</v>
+      </c>
+      <c r="C52" t="s">
+        <v>864</v>
+      </c>
+      <c r="D52" t="s">
+        <v>845</v>
+      </c>
+      <c r="E52" t="s">
+        <v>930</v>
+      </c>
+      <c r="F52" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>931</v>
+      </c>
+      <c r="B53" t="s">
         <v>580</v>
       </c>
-      <c r="C42" t="s">
-        <v>904</v>
-      </c>
-      <c r="D42" t="s"/>
-      <c r="E42" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>909</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C53" t="s">
+        <v>856</v>
+      </c>
+      <c r="D53" t="s"/>
+      <c r="E53" t="s">
+        <v>932</v>
+      </c>
+      <c r="F53" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>933</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>908</v>
+      </c>
+      <c r="D54" t="s"/>
+      <c r="E54" t="s">
+        <v>934</v>
+      </c>
+      <c r="F54" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>935</v>
+      </c>
+      <c r="B55" t="s">
+        <v>870</v>
+      </c>
+      <c r="C55" t="s">
+        <v>908</v>
+      </c>
+      <c r="D55" t="s">
+        <v>936</v>
+      </c>
+      <c r="E55" t="s">
+        <v>937</v>
+      </c>
+      <c r="F55" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>935</v>
+      </c>
+      <c r="B56" t="s">
+        <v>428</v>
+      </c>
+      <c r="C56" t="s">
+        <v>908</v>
+      </c>
+      <c r="D56" t="s">
+        <v>938</v>
+      </c>
+      <c r="E56" t="s">
+        <v>939</v>
+      </c>
+      <c r="F56" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>935</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
+        <v>908</v>
+      </c>
+      <c r="D57" t="s">
+        <v>940</v>
+      </c>
+      <c r="E57" t="s">
+        <v>924</v>
+      </c>
+      <c r="F57" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>935</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
+        <v>908</v>
+      </c>
+      <c r="D58" t="s">
+        <v>941</v>
+      </c>
+      <c r="E58" t="s">
+        <v>942</v>
+      </c>
+      <c r="F58" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>935</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" t="s">
+        <v>908</v>
+      </c>
+      <c r="D59" t="s">
+        <v>943</v>
+      </c>
+      <c r="E59" t="s">
+        <v>944</v>
+      </c>
+      <c r="F59" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>935</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" t="s">
+        <v>908</v>
+      </c>
+      <c r="D60" t="s">
+        <v>945</v>
+      </c>
+      <c r="E60" t="s">
+        <v>946</v>
+      </c>
+      <c r="F60" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>947</v>
+      </c>
+      <c r="B61" t="s">
+        <v>553</v>
+      </c>
+      <c r="C61" t="s">
+        <v>670</v>
+      </c>
+      <c r="D61" t="s"/>
+      <c r="E61" t="s">
+        <v>948</v>
+      </c>
+      <c r="F61" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>949</v>
+      </c>
+      <c r="B62" t="s">
         <v>580</v>
       </c>
-      <c r="C43" t="s">
-        <v>904</v>
-      </c>
-      <c r="D43" t="s"/>
-      <c r="E43" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>909</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C62" t="s">
+        <v>856</v>
+      </c>
+      <c r="D62" t="s"/>
+      <c r="E62" t="s">
+        <v>950</v>
+      </c>
+      <c r="F62" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>949</v>
+      </c>
+      <c r="B63" t="s">
         <v>539</v>
       </c>
-      <c r="C44" t="s">
-        <v>904</v>
-      </c>
-      <c r="D44" t="s"/>
-      <c r="E44" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>909</v>
-      </c>
-      <c r="B45" t="s">
-        <v>539</v>
-      </c>
-      <c r="C45" t="s">
-        <v>904</v>
-      </c>
-      <c r="D45" t="s"/>
-      <c r="E45" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>909</v>
-      </c>
-      <c r="B46" t="s">
-        <v>539</v>
-      </c>
-      <c r="C46" t="s">
-        <v>904</v>
-      </c>
-      <c r="D46" t="s"/>
-      <c r="E46" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>909</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C63" t="s">
+        <v>856</v>
+      </c>
+      <c r="D63" t="s"/>
+      <c r="E63" t="s">
+        <v>951</v>
+      </c>
+      <c r="F63" t="s">
         <v>858</v>
       </c>
-      <c r="C47" t="s">
-        <v>904</v>
-      </c>
-      <c r="D47" t="s"/>
-      <c r="E47" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>909</v>
-      </c>
-      <c r="B48" t="s">
-        <v>858</v>
-      </c>
-      <c r="C48" t="s">
-        <v>904</v>
-      </c>
-      <c r="D48" t="s"/>
-      <c r="E48" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>909</v>
-      </c>
-      <c r="B49" t="s">
-        <v>858</v>
-      </c>
-      <c r="C49" t="s">
-        <v>904</v>
-      </c>
-      <c r="D49" t="s"/>
-      <c r="E49" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>919</v>
-      </c>
-      <c r="B50" t="s">
-        <v>580</v>
-      </c>
-      <c r="C50" t="s">
-        <v>904</v>
-      </c>
-      <c r="D50" t="s"/>
-      <c r="E50" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>919</v>
-      </c>
-      <c r="B51" t="s">
-        <v>580</v>
-      </c>
-      <c r="C51" t="s">
-        <v>904</v>
-      </c>
-      <c r="D51" t="s"/>
-      <c r="E51" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>919</v>
-      </c>
-      <c r="B52" t="s">
-        <v>580</v>
-      </c>
-      <c r="C52" t="s">
-        <v>904</v>
-      </c>
-      <c r="D52" t="s"/>
-      <c r="E52" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>923</v>
-      </c>
-      <c r="B53" t="s">
-        <v>868</v>
-      </c>
-      <c r="C53" t="s">
-        <v>862</v>
-      </c>
-      <c r="D53" t="s">
-        <v>898</v>
-      </c>
-      <c r="E53" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>923</v>
-      </c>
-      <c r="B54" t="s">
-        <v>429</v>
-      </c>
-      <c r="C54" t="s">
-        <v>862</v>
-      </c>
-      <c r="D54" t="s">
-        <v>925</v>
-      </c>
-      <c r="E54" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>923</v>
-      </c>
-      <c r="B55" t="s">
-        <v>428</v>
-      </c>
-      <c r="C55" t="s">
-        <v>862</v>
-      </c>
-      <c r="D55" t="s">
-        <v>597</v>
-      </c>
-      <c r="E55" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>923</v>
-      </c>
-      <c r="B56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56" t="s">
-        <v>862</v>
-      </c>
-      <c r="D56" t="s">
-        <v>928</v>
-      </c>
-      <c r="E56" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>923</v>
-      </c>
-      <c r="B57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57" t="s">
-        <v>862</v>
-      </c>
-      <c r="D57" t="s">
-        <v>843</v>
-      </c>
-      <c r="E57" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>923</v>
-      </c>
-      <c r="B58" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" t="s">
-        <v>862</v>
-      </c>
-      <c r="D58" t="s">
-        <v>931</v>
-      </c>
-      <c r="E58" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>923</v>
-      </c>
-      <c r="B59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" t="s">
-        <v>862</v>
-      </c>
-      <c r="D59" t="s">
-        <v>592</v>
-      </c>
-      <c r="E59" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>923</v>
-      </c>
-      <c r="B60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" t="s">
-        <v>862</v>
-      </c>
-      <c r="D60" t="s">
-        <v>841</v>
-      </c>
-      <c r="E60" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>923</v>
-      </c>
-      <c r="B61" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" t="s">
-        <v>862</v>
-      </c>
-      <c r="D61" t="s">
-        <v>836</v>
-      </c>
-      <c r="E61" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>923</v>
-      </c>
-      <c r="B62" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" t="s">
-        <v>862</v>
-      </c>
-      <c r="D62" t="s">
-        <v>849</v>
-      </c>
-      <c r="E62" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>923</v>
-      </c>
-      <c r="B63" t="s">
-        <v>553</v>
-      </c>
-      <c r="C63" t="s">
-        <v>862</v>
-      </c>
-      <c r="D63" t="s">
-        <v>845</v>
-      </c>
-      <c r="E63" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>938</v>
+        <v>949</v>
       </c>
       <c r="B64" t="s">
-        <v>580</v>
+        <v>859</v>
       </c>
       <c r="C64" t="s">
         <v>856</v>
       </c>
       <c r="D64" t="s"/>
       <c r="E64" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>952</v>
+      </c>
+      <c r="F64" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>940</v>
+        <v>953</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>580</v>
       </c>
       <c r="C65" t="s">
-        <v>904</v>
+        <v>670</v>
       </c>
       <c r="D65" t="s"/>
       <c r="E65" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>954</v>
+      </c>
+      <c r="F65" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>942</v>
+        <v>955</v>
       </c>
       <c r="B66" t="s">
-        <v>868</v>
+        <v>539</v>
       </c>
       <c r="C66" t="s">
-        <v>904</v>
-      </c>
-      <c r="D66" t="s">
-        <v>943</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="D66" t="s"/>
       <c r="E66" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>956</v>
+      </c>
+      <c r="F66" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>942</v>
+        <v>957</v>
       </c>
       <c r="B67" t="s">
-        <v>428</v>
+        <v>859</v>
       </c>
       <c r="C67" t="s">
-        <v>904</v>
-      </c>
-      <c r="D67" t="s">
-        <v>945</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="D67" t="s"/>
       <c r="E67" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>958</v>
+      </c>
+      <c r="F67" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>942</v>
+        <v>959</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>859</v>
       </c>
       <c r="C68" t="s">
-        <v>904</v>
-      </c>
-      <c r="D68" t="s">
-        <v>947</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="D68" t="s"/>
       <c r="E68" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>960</v>
+      </c>
+      <c r="F68" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>942</v>
+        <v>961</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>580</v>
       </c>
       <c r="C69" t="s">
-        <v>904</v>
-      </c>
-      <c r="D69" t="s">
-        <v>949</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="D69" t="s"/>
       <c r="E69" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>962</v>
+      </c>
+      <c r="F69" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>942</v>
+        <v>961</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>539</v>
       </c>
       <c r="C70" t="s">
-        <v>904</v>
-      </c>
-      <c r="D70" t="s">
-        <v>951</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="D70" t="s"/>
       <c r="E70" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>963</v>
+      </c>
+      <c r="F70" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>942</v>
+        <v>961</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>859</v>
       </c>
       <c r="C71" t="s">
-        <v>904</v>
-      </c>
-      <c r="D71" t="s">
-        <v>953</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="D71" t="s"/>
       <c r="E71" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>964</v>
+      </c>
+      <c r="F71" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
       <c r="B72" t="s">
-        <v>553</v>
+        <v>53</v>
       </c>
       <c r="C72" t="s">
         <v>670</v>
       </c>
       <c r="D72" t="s"/>
       <c r="E72" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>966</v>
+      </c>
+      <c r="F72" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="B73" t="s">
-        <v>580</v>
+        <v>870</v>
       </c>
       <c r="C73" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="D73" t="s"/>
       <c r="E73" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>968</v>
+      </c>
+      <c r="F73" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
       <c r="B74" t="s">
-        <v>539</v>
+        <v>42</v>
       </c>
       <c r="C74" t="s">
-        <v>856</v>
-      </c>
-      <c r="D74" t="s"/>
+        <v>670</v>
+      </c>
+      <c r="D74" t="s">
+        <v>970</v>
+      </c>
       <c r="E74" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>971</v>
+      </c>
+      <c r="F74" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
       <c r="B75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" t="s">
+        <v>670</v>
+      </c>
+      <c r="D75" t="s">
+        <v>972</v>
+      </c>
+      <c r="E75" t="s">
+        <v>973</v>
+      </c>
+      <c r="F75" t="s">
         <v>858</v>
       </c>
-      <c r="C75" t="s">
-        <v>856</v>
-      </c>
-      <c r="D75" t="s"/>
-      <c r="E75" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="B76" t="s">
-        <v>580</v>
+        <v>41</v>
       </c>
       <c r="C76" t="s">
         <v>670</v>
       </c>
-      <c r="D76" t="s"/>
+      <c r="D76" t="s">
+        <v>974</v>
+      </c>
       <c r="E76" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>975</v>
+      </c>
+      <c r="F76" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="B77" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="C77" t="s">
-        <v>904</v>
-      </c>
-      <c r="D77" t="s"/>
+        <v>670</v>
+      </c>
+      <c r="D77" t="s">
+        <v>976</v>
+      </c>
       <c r="E77" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>977</v>
+      </c>
+      <c r="F77" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>963</v>
+        <v>978</v>
       </c>
       <c r="B78" t="s">
-        <v>539</v>
+        <v>53</v>
       </c>
       <c r="C78" t="s">
-        <v>904</v>
+        <v>856</v>
       </c>
       <c r="D78" t="s"/>
       <c r="E78" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>979</v>
+      </c>
+      <c r="F78" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>963</v>
+        <v>980</v>
       </c>
       <c r="B79" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="C79" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="D79" t="s"/>
       <c r="E79" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>981</v>
+      </c>
+      <c r="F79" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>967</v>
+        <v>982</v>
       </c>
       <c r="B80" t="s">
-        <v>858</v>
+        <v>42</v>
       </c>
       <c r="C80" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="D80" t="s"/>
       <c r="E80" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>983</v>
+      </c>
+      <c r="F80" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>967</v>
+        <v>984</v>
       </c>
       <c r="B81" t="s">
-        <v>858</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="D81" t="s"/>
       <c r="E81" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>985</v>
+      </c>
+      <c r="F81" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>970</v>
+        <v>984</v>
       </c>
       <c r="B82" t="s">
-        <v>858</v>
+        <v>45</v>
       </c>
       <c r="C82" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="D82" t="s"/>
       <c r="E82" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>986</v>
+      </c>
+      <c r="F82" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>970</v>
+        <v>984</v>
       </c>
       <c r="B83" t="s">
-        <v>858</v>
+        <v>44</v>
       </c>
       <c r="C83" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="D83" t="s"/>
       <c r="E83" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>987</v>
+      </c>
+      <c r="F83" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>973</v>
+        <v>984</v>
       </c>
       <c r="B84" t="s">
-        <v>580</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="D84" t="s"/>
       <c r="E84" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>988</v>
+      </c>
+      <c r="F84" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>973</v>
+        <v>984</v>
       </c>
       <c r="B85" t="s">
-        <v>580</v>
+        <v>53</v>
       </c>
       <c r="C85" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="D85" t="s"/>
       <c r="E85" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>989</v>
+      </c>
+      <c r="F85" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>973</v>
+        <v>984</v>
       </c>
       <c r="B86" t="s">
-        <v>539</v>
+        <v>41</v>
       </c>
       <c r="C86" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="D86" t="s"/>
       <c r="E86" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>990</v>
+      </c>
+      <c r="F86" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>973</v>
+        <v>991</v>
       </c>
       <c r="B87" t="s">
-        <v>539</v>
+        <v>580</v>
       </c>
       <c r="C87" t="s">
-        <v>904</v>
+        <v>856</v>
       </c>
       <c r="D87" t="s"/>
       <c r="E87" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>992</v>
+      </c>
+      <c r="F87" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>973</v>
+        <v>993</v>
       </c>
       <c r="B88" t="s">
-        <v>858</v>
+        <v>41</v>
       </c>
       <c r="C88" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="D88" t="s"/>
       <c r="E88" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>994</v>
+      </c>
+      <c r="F88" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>973</v>
+        <v>995</v>
       </c>
       <c r="B89" t="s">
-        <v>858</v>
+        <v>580</v>
       </c>
       <c r="C89" t="s">
-        <v>904</v>
+        <v>856</v>
       </c>
       <c r="D89" t="s"/>
       <c r="E89" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>996</v>
+      </c>
+      <c r="F89" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>980</v>
+        <v>997</v>
       </c>
       <c r="B90" t="s">
-        <v>53</v>
+        <v>998</v>
       </c>
       <c r="C90" t="s">
-        <v>670</v>
+        <v>864</v>
       </c>
       <c r="D90" t="s"/>
       <c r="E90" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>999</v>
+      </c>
+      <c r="F90" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>982</v>
+        <v>1000</v>
       </c>
       <c r="B91" t="s">
-        <v>868</v>
+        <v>429</v>
       </c>
       <c r="C91" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D91" t="s"/>
       <c r="E91" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>1001</v>
+      </c>
+      <c r="F91" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>984</v>
+        <v>66</v>
       </c>
       <c r="B92" t="s">
-        <v>42</v>
+        <v>998</v>
       </c>
       <c r="C92" t="s">
-        <v>670</v>
+        <v>908</v>
       </c>
       <c r="D92" t="s">
-        <v>985</v>
+        <v>157</v>
       </c>
       <c r="E92" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>1002</v>
+      </c>
+      <c r="F92" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>984</v>
+        <v>66</v>
       </c>
       <c r="B93" t="s">
-        <v>53</v>
+        <v>1003</v>
       </c>
       <c r="C93" t="s">
-        <v>670</v>
+        <v>908</v>
       </c>
       <c r="D93" t="s">
-        <v>987</v>
+        <v>157</v>
       </c>
       <c r="E93" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>1004</v>
+      </c>
+      <c r="F93" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>984</v>
+        <v>66</v>
       </c>
       <c r="B94" t="s">
+        <v>870</v>
+      </c>
+      <c r="C94" t="s">
+        <v>908</v>
+      </c>
+      <c r="D94" t="s">
+        <v>184</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F94" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" t="s">
+        <v>429</v>
+      </c>
+      <c r="C95" t="s">
+        <v>908</v>
+      </c>
+      <c r="D95" t="s">
+        <v>184</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F95" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>66</v>
+      </c>
+      <c r="B96" t="s">
+        <v>428</v>
+      </c>
+      <c r="C96" t="s">
+        <v>908</v>
+      </c>
+      <c r="D96" t="s">
+        <v>293</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F96" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>66</v>
+      </c>
+      <c r="B97" t="s">
+        <v>46</v>
+      </c>
+      <c r="C97" t="s">
+        <v>908</v>
+      </c>
+      <c r="D97" t="s">
+        <v>293</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F97" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>66</v>
+      </c>
+      <c r="B98" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" t="s">
+        <v>908</v>
+      </c>
+      <c r="D98" t="s">
+        <v>133</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F98" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>66</v>
+      </c>
+      <c r="B99" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" t="s">
+        <v>908</v>
+      </c>
+      <c r="D99" t="s">
+        <v>133</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F99" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>66</v>
+      </c>
+      <c r="B100" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" t="s">
+        <v>908</v>
+      </c>
+      <c r="D100" t="s">
+        <v>82</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F100" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>66</v>
+      </c>
+      <c r="B101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" t="s">
+        <v>908</v>
+      </c>
+      <c r="D101" t="s">
+        <v>82</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F101" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>66</v>
+      </c>
+      <c r="B102" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" t="s">
+        <v>908</v>
+      </c>
+      <c r="D102" t="s">
+        <v>144</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F102" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>66</v>
+      </c>
+      <c r="B103" t="s">
         <v>41</v>
       </c>
-      <c r="C94" t="s">
-        <v>670</v>
-      </c>
-      <c r="D94" t="s">
-        <v>989</v>
-      </c>
-      <c r="E94" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>984</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="C103" t="s">
+        <v>908</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F103" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>66</v>
+      </c>
+      <c r="B104" t="s">
         <v>553</v>
       </c>
-      <c r="C95" t="s">
-        <v>670</v>
-      </c>
-      <c r="D95" t="s">
-        <v>991</v>
-      </c>
-      <c r="E95" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>993</v>
-      </c>
-      <c r="B96" t="s">
-        <v>53</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="C104" t="s">
+        <v>908</v>
+      </c>
+      <c r="D104" t="s">
+        <v>274</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F104" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B105" t="s">
+        <v>580</v>
+      </c>
+      <c r="C105" t="s">
         <v>856</v>
-      </c>
-      <c r="D96" t="s"/>
-      <c r="E96" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>995</v>
-      </c>
-      <c r="B97" t="s">
-        <v>553</v>
-      </c>
-      <c r="C97" t="s">
-        <v>904</v>
-      </c>
-      <c r="D97" t="s"/>
-      <c r="E97" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>995</v>
-      </c>
-      <c r="B98" t="s">
-        <v>553</v>
-      </c>
-      <c r="C98" t="s">
-        <v>904</v>
-      </c>
-      <c r="D98" t="s"/>
-      <c r="E98" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>995</v>
-      </c>
-      <c r="B99" t="s">
-        <v>553</v>
-      </c>
-      <c r="C99" t="s">
-        <v>904</v>
-      </c>
-      <c r="D99" t="s"/>
-      <c r="E99" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>995</v>
-      </c>
-      <c r="B100" t="s">
-        <v>553</v>
-      </c>
-      <c r="C100" t="s">
-        <v>904</v>
-      </c>
-      <c r="D100" t="s"/>
-      <c r="E100" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>999</v>
-      </c>
-      <c r="B101" t="s">
-        <v>42</v>
-      </c>
-      <c r="C101" t="s">
-        <v>904</v>
-      </c>
-      <c r="D101" t="s"/>
-      <c r="E101" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>999</v>
-      </c>
-      <c r="B102" t="s">
-        <v>42</v>
-      </c>
-      <c r="C102" t="s">
-        <v>904</v>
-      </c>
-      <c r="D102" t="s"/>
-      <c r="E102" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>999</v>
-      </c>
-      <c r="B103" t="s">
-        <v>42</v>
-      </c>
-      <c r="C103" t="s">
-        <v>904</v>
-      </c>
-      <c r="D103" t="s"/>
-      <c r="E103" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>999</v>
-      </c>
-      <c r="B104" t="s">
-        <v>42</v>
-      </c>
-      <c r="C104" t="s">
-        <v>904</v>
-      </c>
-      <c r="D104" t="s"/>
-      <c r="E104" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B105" t="s">
-        <v>43</v>
-      </c>
-      <c r="C105" t="s">
-        <v>862</v>
       </c>
       <c r="D105" t="s"/>
       <c r="E105" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>1018</v>
+      </c>
+      <c r="F105" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>1004</v>
+        <v>1017</v>
       </c>
       <c r="B106" t="s">
-        <v>45</v>
+        <v>539</v>
       </c>
       <c r="C106" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="D106" t="s"/>
       <c r="E106" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>1019</v>
+      </c>
+      <c r="F106" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>1004</v>
+        <v>1017</v>
       </c>
       <c r="B107" t="s">
-        <v>44</v>
+        <v>859</v>
       </c>
       <c r="C107" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="D107" t="s"/>
       <c r="E107" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>1020</v>
+      </c>
+      <c r="F107" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>1004</v>
+        <v>1021</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>580</v>
       </c>
       <c r="C108" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="D108" t="s"/>
       <c r="E108" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>1022</v>
+      </c>
+      <c r="F108" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>1004</v>
+        <v>1021</v>
       </c>
       <c r="B109" t="s">
-        <v>53</v>
+        <v>539</v>
       </c>
       <c r="C109" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="D109" t="s"/>
       <c r="E109" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>1023</v>
+      </c>
+      <c r="F109" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>1004</v>
+        <v>1021</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>859</v>
       </c>
       <c r="C110" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="D110" t="s"/>
       <c r="E110" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>1024</v>
+      </c>
+      <c r="F110" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>1011</v>
+        <v>1025</v>
       </c>
       <c r="B111" t="s">
+        <v>998</v>
+      </c>
+      <c r="C111" t="s">
+        <v>908</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F111" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B112" t="s">
+        <v>870</v>
+      </c>
+      <c r="C112" t="s">
+        <v>908</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F112" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B113" t="s">
+        <v>428</v>
+      </c>
+      <c r="C113" t="s">
+        <v>908</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F113" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B114" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114" t="s">
+        <v>908</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F114" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B115" t="s">
+        <v>44</v>
+      </c>
+      <c r="C115" t="s">
+        <v>908</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F115" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B116" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" t="s">
+        <v>908</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F116" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B117" t="s">
         <v>580</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C117" t="s">
         <v>856</v>
       </c>
-      <c r="D111" t="s"/>
-      <c r="E111" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="D117" t="s"/>
+      <c r="E117" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F117" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B118" t="s">
+        <v>580</v>
+      </c>
+      <c r="C118" t="s">
+        <v>908</v>
+      </c>
+      <c r="D118" t="s"/>
+      <c r="E118" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F118" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B119" t="s">
+        <v>539</v>
+      </c>
+      <c r="C119" t="s">
+        <v>908</v>
+      </c>
+      <c r="D119" t="s"/>
+      <c r="E119" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F119" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B120" t="s">
+        <v>859</v>
+      </c>
+      <c r="C120" t="s">
+        <v>908</v>
+      </c>
+      <c r="D120" t="s"/>
+      <c r="E120" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F120" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B121" t="s">
+        <v>861</v>
+      </c>
+      <c r="C121" t="s">
+        <v>908</v>
+      </c>
+      <c r="D121" t="s"/>
+      <c r="E121" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F121" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B122" t="s">
+        <v>429</v>
+      </c>
+      <c r="C122" t="s">
+        <v>864</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F122" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B123" t="s">
+        <v>46</v>
+      </c>
+      <c r="C123" t="s">
+        <v>864</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F123" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B124" t="s">
+        <v>45</v>
+      </c>
+      <c r="C124" t="s">
+        <v>864</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F124" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B125" t="s">
+        <v>42</v>
+      </c>
+      <c r="C125" t="s">
+        <v>864</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F125" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B126" t="s">
         <v>41</v>
       </c>
-      <c r="C112" t="s">
-        <v>862</v>
-      </c>
-      <c r="D112" t="s"/>
-      <c r="E112" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B113" t="s">
-        <v>580</v>
-      </c>
-      <c r="C113" t="s">
-        <v>856</v>
-      </c>
-      <c r="D113" t="s"/>
-      <c r="E113" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B114" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C114" t="s">
-        <v>862</v>
-      </c>
-      <c r="D114" t="s"/>
-      <c r="E114" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="C126" t="s">
+        <v>864</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F126" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B127" t="s">
         <v>429</v>
       </c>
-      <c r="C115" t="s">
-        <v>862</v>
-      </c>
-      <c r="D115" t="s"/>
-      <c r="E115" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>66</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C116" t="s">
-        <v>904</v>
-      </c>
-      <c r="D116" t="s">
-        <v>157</v>
-      </c>
-      <c r="E116" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" t="s">
-        <v>66</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C117" t="s">
-        <v>904</v>
-      </c>
-      <c r="D117" t="s">
-        <v>157</v>
-      </c>
-      <c r="E117" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>66</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C118" t="s">
-        <v>904</v>
-      </c>
-      <c r="D118" t="s">
-        <v>157</v>
-      </c>
-      <c r="E118" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>66</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C119" t="s">
-        <v>904</v>
-      </c>
-      <c r="D119" t="s">
-        <v>157</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>66</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C120" t="s">
-        <v>904</v>
-      </c>
-      <c r="D120" t="s">
-        <v>157</v>
-      </c>
-      <c r="E120" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
-        <v>66</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C121" t="s">
-        <v>904</v>
-      </c>
-      <c r="D121" t="s">
-        <v>157</v>
-      </c>
-      <c r="E121" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" t="s">
-        <v>66</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C122" t="s">
-        <v>904</v>
-      </c>
-      <c r="D122" t="s">
-        <v>157</v>
-      </c>
-      <c r="E122" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" t="s">
-        <v>66</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C123" t="s">
-        <v>904</v>
-      </c>
-      <c r="D123" t="s">
-        <v>157</v>
-      </c>
-      <c r="E123" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" t="s">
-        <v>66</v>
-      </c>
-      <c r="B124" t="s">
-        <v>868</v>
-      </c>
-      <c r="C124" t="s">
-        <v>904</v>
-      </c>
-      <c r="D124" t="s">
-        <v>184</v>
-      </c>
-      <c r="E124" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" t="s">
-        <v>66</v>
-      </c>
-      <c r="B125" t="s">
-        <v>868</v>
-      </c>
-      <c r="C125" t="s">
-        <v>904</v>
-      </c>
-      <c r="D125" t="s">
-        <v>184</v>
-      </c>
-      <c r="E125" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" t="s">
-        <v>66</v>
-      </c>
-      <c r="B126" t="s">
-        <v>868</v>
-      </c>
-      <c r="C126" t="s">
-        <v>904</v>
-      </c>
-      <c r="D126" t="s">
-        <v>184</v>
-      </c>
-      <c r="E126" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>66</v>
-      </c>
-      <c r="B127" t="s">
-        <v>868</v>
-      </c>
       <c r="C127" t="s">
-        <v>904</v>
-      </c>
-      <c r="D127" t="s">
-        <v>184</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="D127" t="s"/>
       <c r="E127" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>1057</v>
+      </c>
+      <c r="F127" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>66</v>
+        <v>1056</v>
       </c>
       <c r="B128" t="s">
+        <v>428</v>
+      </c>
+      <c r="C128" t="s">
+        <v>908</v>
+      </c>
+      <c r="D128" t="s"/>
+      <c r="E128" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F128" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B129" t="s">
+        <v>46</v>
+      </c>
+      <c r="C129" t="s">
+        <v>908</v>
+      </c>
+      <c r="D129" t="s"/>
+      <c r="E129" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F129" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B130" t="s">
+        <v>43</v>
+      </c>
+      <c r="C130" t="s">
+        <v>908</v>
+      </c>
+      <c r="D130" t="s"/>
+      <c r="E130" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F130" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B131" t="s">
+        <v>45</v>
+      </c>
+      <c r="C131" t="s">
+        <v>908</v>
+      </c>
+      <c r="D131" t="s"/>
+      <c r="E131" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F131" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B132" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132" t="s">
+        <v>908</v>
+      </c>
+      <c r="D132" t="s"/>
+      <c r="E132" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F132" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B133" t="s">
+        <v>42</v>
+      </c>
+      <c r="C133" t="s">
+        <v>908</v>
+      </c>
+      <c r="D133" t="s"/>
+      <c r="E133" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F133" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B134" t="s">
+        <v>53</v>
+      </c>
+      <c r="C134" t="s">
+        <v>908</v>
+      </c>
+      <c r="D134" t="s"/>
+      <c r="E134" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F134" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B135" t="s">
+        <v>41</v>
+      </c>
+      <c r="C135" t="s">
+        <v>908</v>
+      </c>
+      <c r="D135" t="s"/>
+      <c r="E135" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F135" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B136" t="s">
+        <v>553</v>
+      </c>
+      <c r="C136" t="s">
+        <v>908</v>
+      </c>
+      <c r="D136" t="s"/>
+      <c r="E136" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F136" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B137" t="s">
+        <v>53</v>
+      </c>
+      <c r="C137" t="s">
+        <v>670</v>
+      </c>
+      <c r="D137" t="s"/>
+      <c r="E137" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F137" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B138" t="s">
         <v>429</v>
       </c>
-      <c r="C128" t="s">
-        <v>904</v>
-      </c>
-      <c r="D128" t="s">
-        <v>184</v>
-      </c>
-      <c r="E128" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>66</v>
-      </c>
-      <c r="B129" t="s">
-        <v>428</v>
-      </c>
-      <c r="C129" t="s">
-        <v>904</v>
-      </c>
-      <c r="D129" t="s">
-        <v>293</v>
-      </c>
-      <c r="E129" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" t="s">
-        <v>66</v>
-      </c>
-      <c r="B130" t="s">
-        <v>46</v>
-      </c>
-      <c r="C130" t="s">
-        <v>904</v>
-      </c>
-      <c r="D130" t="s">
-        <v>293</v>
-      </c>
-      <c r="E130" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" t="s">
-        <v>66</v>
-      </c>
-      <c r="B131" t="s">
-        <v>43</v>
-      </c>
-      <c r="C131" t="s">
-        <v>904</v>
-      </c>
-      <c r="D131" t="s">
-        <v>133</v>
-      </c>
-      <c r="E131" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" t="s">
-        <v>66</v>
-      </c>
-      <c r="B132" t="s">
-        <v>45</v>
-      </c>
-      <c r="C132" t="s">
-        <v>904</v>
-      </c>
-      <c r="D132" t="s">
-        <v>133</v>
-      </c>
-      <c r="E132" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" t="s">
-        <v>66</v>
-      </c>
-      <c r="B133" t="s">
-        <v>44</v>
-      </c>
-      <c r="C133" t="s">
-        <v>904</v>
-      </c>
-      <c r="D133" t="s">
-        <v>82</v>
-      </c>
-      <c r="E133" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" t="s">
-        <v>66</v>
-      </c>
-      <c r="B134" t="s">
-        <v>42</v>
-      </c>
-      <c r="C134" t="s">
-        <v>904</v>
-      </c>
-      <c r="D134" t="s">
-        <v>82</v>
-      </c>
-      <c r="E134" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" t="s">
-        <v>66</v>
-      </c>
-      <c r="B135" t="s">
-        <v>53</v>
-      </c>
-      <c r="C135" t="s">
-        <v>904</v>
-      </c>
-      <c r="D135" t="s">
-        <v>144</v>
-      </c>
-      <c r="E135" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" t="s">
-        <v>66</v>
-      </c>
-      <c r="B136" t="s">
-        <v>41</v>
-      </c>
-      <c r="C136" t="s">
-        <v>904</v>
-      </c>
-      <c r="D136" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E136" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" t="s">
-        <v>66</v>
-      </c>
-      <c r="B137" t="s">
-        <v>553</v>
-      </c>
-      <c r="C137" t="s">
-        <v>904</v>
-      </c>
-      <c r="D137" t="s">
-        <v>274</v>
-      </c>
-      <c r="E137" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B138" t="s">
-        <v>580</v>
-      </c>
       <c r="C138" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="D138" t="s"/>
       <c r="E138" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>1070</v>
+      </c>
+      <c r="F138" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>1046</v>
+        <v>1071</v>
       </c>
       <c r="B139" t="s">
+        <v>429</v>
+      </c>
+      <c r="C139" t="s">
+        <v>864</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F139" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B140" t="s">
+        <v>46</v>
+      </c>
+      <c r="C140" t="s">
+        <v>864</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F140" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B141" t="s">
+        <v>45</v>
+      </c>
+      <c r="C141" t="s">
+        <v>864</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F141" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B142" t="s">
+        <v>42</v>
+      </c>
+      <c r="C142" t="s">
+        <v>864</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F142" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B143" t="s">
+        <v>41</v>
+      </c>
+      <c r="C143" t="s">
+        <v>864</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F143" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B144" t="s">
+        <v>42</v>
+      </c>
+      <c r="C144" t="s">
+        <v>670</v>
+      </c>
+      <c r="D144" t="s"/>
+      <c r="E144" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F144" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B145" t="s">
+        <v>53</v>
+      </c>
+      <c r="C145" t="s">
+        <v>670</v>
+      </c>
+      <c r="D145" t="s"/>
+      <c r="E145" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F145" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B146" t="s">
+        <v>41</v>
+      </c>
+      <c r="C146" t="s">
+        <v>670</v>
+      </c>
+      <c r="D146" t="s"/>
+      <c r="E146" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F146" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B147" t="s">
+        <v>553</v>
+      </c>
+      <c r="C147" t="s">
+        <v>670</v>
+      </c>
+      <c r="D147" t="s"/>
+      <c r="E147" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F147" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B148" t="s">
+        <v>46</v>
+      </c>
+      <c r="C148" t="s">
+        <v>864</v>
+      </c>
+      <c r="D148" t="s"/>
+      <c r="E148" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F148" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B149" t="s">
+        <v>44</v>
+      </c>
+      <c r="C149" t="s">
+        <v>856</v>
+      </c>
+      <c r="D149" t="s"/>
+      <c r="E149" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F149" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B150" t="s">
+        <v>42</v>
+      </c>
+      <c r="C150" t="s">
+        <v>856</v>
+      </c>
+      <c r="D150" t="s"/>
+      <c r="E150" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F150" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B151" t="s">
+        <v>53</v>
+      </c>
+      <c r="C151" t="s">
+        <v>856</v>
+      </c>
+      <c r="D151" t="s"/>
+      <c r="E151" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F151" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B152" t="s">
+        <v>41</v>
+      </c>
+      <c r="C152" t="s">
+        <v>856</v>
+      </c>
+      <c r="D152" t="s"/>
+      <c r="E152" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F152" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B153" t="s">
+        <v>553</v>
+      </c>
+      <c r="C153" t="s">
+        <v>856</v>
+      </c>
+      <c r="D153" t="s"/>
+      <c r="E153" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F153" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B154" t="s">
+        <v>580</v>
+      </c>
+      <c r="C154" t="s">
+        <v>856</v>
+      </c>
+      <c r="D154" t="s"/>
+      <c r="E154" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F154" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B155" t="s">
         <v>539</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C155" t="s">
         <v>856</v>
       </c>
-      <c r="D139" t="s"/>
-      <c r="E139" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="D155" t="s"/>
+      <c r="E155" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F155" t="s">
         <v>858</v>
       </c>
-      <c r="C140" t="s">
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B156" t="s">
+        <v>859</v>
+      </c>
+      <c r="C156" t="s">
         <v>856</v>
       </c>
-      <c r="D140" t="s"/>
-      <c r="E140" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="D156" t="s"/>
+      <c r="E156" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F156" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B157" t="s">
+        <v>861</v>
+      </c>
+      <c r="C157" t="s">
+        <v>856</v>
+      </c>
+      <c r="D157" t="s"/>
+      <c r="E157" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F157" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B158" t="s">
         <v>580</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C158" t="s">
+        <v>670</v>
+      </c>
+      <c r="D158" t="s"/>
+      <c r="E158" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F158" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B159" t="s">
+        <v>539</v>
+      </c>
+      <c r="C159" t="s">
+        <v>670</v>
+      </c>
+      <c r="D159" t="s"/>
+      <c r="E159" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F159" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B160" t="s">
+        <v>859</v>
+      </c>
+      <c r="C160" t="s">
+        <v>670</v>
+      </c>
+      <c r="D160" t="s"/>
+      <c r="E160" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F160" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B161" t="s">
+        <v>861</v>
+      </c>
+      <c r="C161" t="s">
+        <v>670</v>
+      </c>
+      <c r="D161" t="s"/>
+      <c r="E161" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F161" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B162" t="s">
+        <v>553</v>
+      </c>
+      <c r="C162" t="s">
+        <v>864</v>
+      </c>
+      <c r="D162" t="s"/>
+      <c r="E162" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F162" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B163" t="s">
+        <v>580</v>
+      </c>
+      <c r="C163" t="s">
         <v>856</v>
       </c>
-      <c r="D141" t="s"/>
-      <c r="E141" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B142" t="s">
+      <c r="D163" t="s"/>
+      <c r="E163" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F163" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B164" t="s">
         <v>539</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C164" t="s">
         <v>856</v>
       </c>
-      <c r="D142" t="s"/>
-      <c r="E142" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="D164" t="s"/>
+      <c r="E164" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F164" t="s">
         <v>858</v>
       </c>
-      <c r="C143" t="s">
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B165" t="s">
+        <v>859</v>
+      </c>
+      <c r="C165" t="s">
         <v>856</v>
       </c>
-      <c r="D143" t="s"/>
-      <c r="E143" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C144" t="s">
-        <v>904</v>
-      </c>
-      <c r="D144" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E144" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C145" t="s">
-        <v>904</v>
-      </c>
-      <c r="D145" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E145" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C146" t="s">
-        <v>904</v>
-      </c>
-      <c r="D146" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E146" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B147" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C147" t="s">
-        <v>904</v>
-      </c>
-      <c r="D147" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E147" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B148" t="s">
-        <v>868</v>
-      </c>
-      <c r="C148" t="s">
-        <v>904</v>
-      </c>
-      <c r="D148" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E148" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B149" t="s">
-        <v>868</v>
-      </c>
-      <c r="C149" t="s">
-        <v>904</v>
-      </c>
-      <c r="D149" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E149" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B150" t="s">
-        <v>868</v>
-      </c>
-      <c r="C150" t="s">
-        <v>904</v>
-      </c>
-      <c r="D150" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E150" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B151" t="s">
-        <v>868</v>
-      </c>
-      <c r="C151" t="s">
-        <v>904</v>
-      </c>
-      <c r="D151" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E151" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B152" t="s">
-        <v>428</v>
-      </c>
-      <c r="C152" t="s">
-        <v>904</v>
-      </c>
-      <c r="D152" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E152" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B153" t="s">
-        <v>428</v>
-      </c>
-      <c r="C153" t="s">
-        <v>904</v>
-      </c>
-      <c r="D153" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E153" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B154" t="s">
-        <v>428</v>
-      </c>
-      <c r="C154" t="s">
-        <v>904</v>
-      </c>
-      <c r="D154" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E154" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B155" t="s">
-        <v>428</v>
-      </c>
-      <c r="C155" t="s">
-        <v>904</v>
-      </c>
-      <c r="D155" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E155" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B156" t="s">
-        <v>43</v>
-      </c>
-      <c r="C156" t="s">
-        <v>904</v>
-      </c>
-      <c r="D156" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E156" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B157" t="s">
-        <v>43</v>
-      </c>
-      <c r="C157" t="s">
-        <v>904</v>
-      </c>
-      <c r="D157" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E157" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B158" t="s">
-        <v>43</v>
-      </c>
-      <c r="C158" t="s">
-        <v>904</v>
-      </c>
-      <c r="D158" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E158" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B159" t="s">
-        <v>43</v>
-      </c>
-      <c r="C159" t="s">
-        <v>904</v>
-      </c>
-      <c r="D159" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E159" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B160" t="s">
-        <v>44</v>
-      </c>
-      <c r="C160" t="s">
-        <v>904</v>
-      </c>
-      <c r="D160" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E160" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B161" t="s">
-        <v>44</v>
-      </c>
-      <c r="C161" t="s">
-        <v>904</v>
-      </c>
-      <c r="D161" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E161" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B162" t="s">
-        <v>44</v>
-      </c>
-      <c r="C162" t="s">
-        <v>904</v>
-      </c>
-      <c r="D162" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E162" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B163" t="s">
-        <v>44</v>
-      </c>
-      <c r="C163" t="s">
-        <v>904</v>
-      </c>
-      <c r="D163" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E163" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B164" t="s">
-        <v>53</v>
-      </c>
-      <c r="C164" t="s">
-        <v>904</v>
-      </c>
-      <c r="D164" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E164" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B165" t="s">
-        <v>53</v>
-      </c>
-      <c r="C165" t="s">
-        <v>904</v>
-      </c>
-      <c r="D165" t="s">
-        <v>1079</v>
-      </c>
+      <c r="D165" t="s"/>
       <c r="E165" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>1112</v>
+      </c>
+      <c r="F165" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>1053</v>
+        <v>1113</v>
       </c>
       <c r="B166" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C166" t="s">
-        <v>904</v>
+        <v>856</v>
       </c>
       <c r="D166" t="s">
-        <v>1079</v>
+        <v>1114</v>
       </c>
       <c r="E166" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>1115</v>
+      </c>
+      <c r="F166" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>1053</v>
+        <v>1113</v>
       </c>
       <c r="B167" t="s">
         <v>53</v>
       </c>
       <c r="C167" t="s">
-        <v>904</v>
+        <v>856</v>
       </c>
       <c r="D167" t="s">
-        <v>1079</v>
+        <v>1116</v>
       </c>
       <c r="E167" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>1117</v>
+      </c>
+      <c r="F167" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>1084</v>
+        <v>1118</v>
       </c>
       <c r="B168" t="s">
-        <v>580</v>
+        <v>1003</v>
       </c>
       <c r="C168" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="D168" t="s"/>
       <c r="E168" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>1119</v>
+      </c>
+      <c r="F168" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>1086</v>
+        <v>1120</v>
       </c>
       <c r="B169" t="s">
-        <v>580</v>
+        <v>840</v>
       </c>
       <c r="C169" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="D169" t="s"/>
       <c r="E169" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>1121</v>
+      </c>
+      <c r="F169" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>1086</v>
+        <v>1120</v>
       </c>
       <c r="B170" t="s">
-        <v>580</v>
+        <v>1003</v>
       </c>
       <c r="C170" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="D170" t="s"/>
       <c r="E170" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>1122</v>
+      </c>
+      <c r="F170" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>1086</v>
+        <v>1120</v>
       </c>
       <c r="B171" t="s">
-        <v>539</v>
+        <v>429</v>
       </c>
       <c r="C171" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="D171" t="s"/>
       <c r="E171" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>1123</v>
+      </c>
+      <c r="F171" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>1086</v>
+        <v>1120</v>
       </c>
       <c r="B172" t="s">
-        <v>539</v>
+        <v>46</v>
       </c>
       <c r="C172" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="D172" t="s"/>
       <c r="E172" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>1124</v>
+      </c>
+      <c r="F172" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>1086</v>
+        <v>1120</v>
       </c>
       <c r="B173" t="s">
-        <v>858</v>
+        <v>45</v>
       </c>
       <c r="C173" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="D173" t="s"/>
       <c r="E173" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>1125</v>
+      </c>
+      <c r="F173" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>1086</v>
+        <v>1120</v>
       </c>
       <c r="B174" t="s">
-        <v>858</v>
+        <v>42</v>
       </c>
       <c r="C174" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="D174" t="s"/>
       <c r="E174" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>1126</v>
+      </c>
+      <c r="F174" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>1086</v>
+        <v>1120</v>
       </c>
       <c r="B175" t="s">
-        <v>860</v>
+        <v>41</v>
       </c>
       <c r="C175" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="D175" t="s"/>
       <c r="E175" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B176" t="s">
-        <v>860</v>
-      </c>
-      <c r="C176" t="s">
-        <v>904</v>
-      </c>
-      <c r="D176" t="s"/>
-      <c r="E176" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B177" t="s">
-        <v>429</v>
-      </c>
-      <c r="C177" t="s">
-        <v>862</v>
-      </c>
-      <c r="D177" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E177" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B178" t="s">
-        <v>46</v>
-      </c>
-      <c r="C178" t="s">
-        <v>862</v>
-      </c>
-      <c r="D178" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E178" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B179" t="s">
-        <v>45</v>
-      </c>
-      <c r="C179" t="s">
-        <v>862</v>
-      </c>
-      <c r="D179" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E179" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B180" t="s">
-        <v>42</v>
-      </c>
-      <c r="C180" t="s">
-        <v>862</v>
-      </c>
-      <c r="D180" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E180" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B181" t="s">
-        <v>41</v>
-      </c>
-      <c r="C181" t="s">
-        <v>862</v>
-      </c>
-      <c r="D181" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E181" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B182" t="s">
-        <v>429</v>
-      </c>
-      <c r="C182" t="s">
-        <v>904</v>
-      </c>
-      <c r="D182" t="s"/>
-      <c r="E182" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B183" t="s">
-        <v>429</v>
-      </c>
-      <c r="C183" t="s">
-        <v>904</v>
-      </c>
-      <c r="D183" t="s"/>
-      <c r="E183" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B184" t="s">
-        <v>429</v>
-      </c>
-      <c r="C184" t="s">
-        <v>904</v>
-      </c>
-      <c r="D184" t="s"/>
-      <c r="E184" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B185" t="s">
-        <v>429</v>
-      </c>
-      <c r="C185" t="s">
-        <v>904</v>
-      </c>
-      <c r="D185" t="s"/>
-      <c r="E185" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B186" t="s">
-        <v>428</v>
-      </c>
-      <c r="C186" t="s">
-        <v>904</v>
-      </c>
-      <c r="D186" t="s"/>
-      <c r="E186" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B187" t="s">
-        <v>428</v>
-      </c>
-      <c r="C187" t="s">
-        <v>904</v>
-      </c>
-      <c r="D187" t="s"/>
-      <c r="E187" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B188" t="s">
-        <v>428</v>
-      </c>
-      <c r="C188" t="s">
-        <v>904</v>
-      </c>
-      <c r="D188" t="s"/>
-      <c r="E188" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B189" t="s">
-        <v>428</v>
-      </c>
-      <c r="C189" t="s">
-        <v>904</v>
-      </c>
-      <c r="D189" t="s"/>
-      <c r="E189" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B190" t="s">
-        <v>46</v>
-      </c>
-      <c r="C190" t="s">
-        <v>904</v>
-      </c>
-      <c r="D190" t="s"/>
-      <c r="E190" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B191" t="s">
-        <v>46</v>
-      </c>
-      <c r="C191" t="s">
-        <v>904</v>
-      </c>
-      <c r="D191" t="s"/>
-      <c r="E191" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B192" t="s">
-        <v>46</v>
-      </c>
-      <c r="C192" t="s">
-        <v>904</v>
-      </c>
-      <c r="D192" t="s"/>
-      <c r="E192" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B193" t="s">
-        <v>46</v>
-      </c>
-      <c r="C193" t="s">
-        <v>904</v>
-      </c>
-      <c r="D193" t="s"/>
-      <c r="E193" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B194" t="s">
-        <v>43</v>
-      </c>
-      <c r="C194" t="s">
-        <v>904</v>
-      </c>
-      <c r="D194" t="s"/>
-      <c r="E194" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B195" t="s">
-        <v>43</v>
-      </c>
-      <c r="C195" t="s">
-        <v>904</v>
-      </c>
-      <c r="D195" t="s"/>
-      <c r="E195" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B196" t="s">
-        <v>43</v>
-      </c>
-      <c r="C196" t="s">
-        <v>904</v>
-      </c>
-      <c r="D196" t="s"/>
-      <c r="E196" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B197" t="s">
-        <v>43</v>
-      </c>
-      <c r="C197" t="s">
-        <v>904</v>
-      </c>
-      <c r="D197" t="s"/>
-      <c r="E197" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B198" t="s">
-        <v>45</v>
-      </c>
-      <c r="C198" t="s">
-        <v>904</v>
-      </c>
-      <c r="D198" t="s"/>
-      <c r="E198" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B199" t="s">
-        <v>45</v>
-      </c>
-      <c r="C199" t="s">
-        <v>904</v>
-      </c>
-      <c r="D199" t="s"/>
-      <c r="E199" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B200" t="s">
-        <v>45</v>
-      </c>
-      <c r="C200" t="s">
-        <v>904</v>
-      </c>
-      <c r="D200" t="s"/>
-      <c r="E200" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B201" t="s">
-        <v>45</v>
-      </c>
-      <c r="C201" t="s">
-        <v>904</v>
-      </c>
-      <c r="D201" t="s"/>
-      <c r="E201" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B202" t="s">
-        <v>44</v>
-      </c>
-      <c r="C202" t="s">
-        <v>904</v>
-      </c>
-      <c r="D202" t="s"/>
-      <c r="E202" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B203" t="s">
-        <v>44</v>
-      </c>
-      <c r="C203" t="s">
-        <v>904</v>
-      </c>
-      <c r="D203" t="s"/>
-      <c r="E203" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B204" t="s">
-        <v>44</v>
-      </c>
-      <c r="C204" t="s">
-        <v>904</v>
-      </c>
-      <c r="D204" t="s"/>
-      <c r="E204" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B205" t="s">
-        <v>44</v>
-      </c>
-      <c r="C205" t="s">
-        <v>904</v>
-      </c>
-      <c r="D205" t="s"/>
-      <c r="E205" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B206" t="s">
-        <v>42</v>
-      </c>
-      <c r="C206" t="s">
-        <v>904</v>
-      </c>
-      <c r="D206" t="s"/>
-      <c r="E206" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B207" t="s">
-        <v>42</v>
-      </c>
-      <c r="C207" t="s">
-        <v>904</v>
-      </c>
-      <c r="D207" t="s"/>
-      <c r="E207" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B208" t="s">
-        <v>42</v>
-      </c>
-      <c r="C208" t="s">
-        <v>904</v>
-      </c>
-      <c r="D208" t="s"/>
-      <c r="E208" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B209" t="s">
-        <v>42</v>
-      </c>
-      <c r="C209" t="s">
-        <v>904</v>
-      </c>
-      <c r="D209" t="s"/>
-      <c r="E209" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B210" t="s">
-        <v>53</v>
-      </c>
-      <c r="C210" t="s">
-        <v>904</v>
-      </c>
-      <c r="D210" t="s"/>
-      <c r="E210" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B211" t="s">
-        <v>53</v>
-      </c>
-      <c r="C211" t="s">
-        <v>904</v>
-      </c>
-      <c r="D211" t="s"/>
-      <c r="E211" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B212" t="s">
-        <v>53</v>
-      </c>
-      <c r="C212" t="s">
-        <v>904</v>
-      </c>
-      <c r="D212" t="s"/>
-      <c r="E212" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B213" t="s">
-        <v>53</v>
-      </c>
-      <c r="C213" t="s">
-        <v>904</v>
-      </c>
-      <c r="D213" t="s"/>
-      <c r="E213" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B214" t="s">
-        <v>41</v>
-      </c>
-      <c r="C214" t="s">
-        <v>904</v>
-      </c>
-      <c r="D214" t="s"/>
-      <c r="E214" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B215" t="s">
-        <v>41</v>
-      </c>
-      <c r="C215" t="s">
-        <v>904</v>
-      </c>
-      <c r="D215" t="s"/>
-      <c r="E215" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B216" t="s">
-        <v>41</v>
-      </c>
-      <c r="C216" t="s">
-        <v>904</v>
-      </c>
-      <c r="D216" t="s"/>
-      <c r="E216" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B217" t="s">
-        <v>41</v>
-      </c>
-      <c r="C217" t="s">
-        <v>904</v>
-      </c>
-      <c r="D217" t="s"/>
-      <c r="E217" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B218" t="s">
-        <v>553</v>
-      </c>
-      <c r="C218" t="s">
-        <v>904</v>
-      </c>
-      <c r="D218" t="s"/>
-      <c r="E218" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B219" t="s">
-        <v>553</v>
-      </c>
-      <c r="C219" t="s">
-        <v>904</v>
-      </c>
-      <c r="D219" t="s"/>
-      <c r="E219" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B220" t="s">
-        <v>553</v>
-      </c>
-      <c r="C220" t="s">
-        <v>904</v>
-      </c>
-      <c r="D220" t="s"/>
-      <c r="E220" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B221" t="s">
-        <v>553</v>
-      </c>
-      <c r="C221" t="s">
-        <v>904</v>
-      </c>
-      <c r="D221" t="s"/>
-      <c r="E221" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B222" t="s">
-        <v>53</v>
-      </c>
-      <c r="C222" t="s">
-        <v>670</v>
-      </c>
-      <c r="D222" t="s"/>
-      <c r="E222" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B223" t="s">
-        <v>429</v>
-      </c>
-      <c r="C223" t="s">
-        <v>862</v>
-      </c>
-      <c r="D223" t="s"/>
-      <c r="E223" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B224" t="s">
-        <v>429</v>
-      </c>
-      <c r="C224" t="s">
-        <v>862</v>
-      </c>
-      <c r="D224" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E224" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B225" t="s">
-        <v>46</v>
-      </c>
-      <c r="C225" t="s">
-        <v>862</v>
-      </c>
-      <c r="D225" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E225" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B226" t="s">
-        <v>45</v>
-      </c>
-      <c r="C226" t="s">
-        <v>862</v>
-      </c>
-      <c r="D226" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E226" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B227" t="s">
-        <v>42</v>
-      </c>
-      <c r="C227" t="s">
-        <v>862</v>
-      </c>
-      <c r="D227" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E227" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B228" t="s">
-        <v>41</v>
-      </c>
-      <c r="C228" t="s">
-        <v>862</v>
-      </c>
-      <c r="D228" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E228" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B229" t="s">
-        <v>42</v>
-      </c>
-      <c r="C229" t="s">
-        <v>670</v>
-      </c>
-      <c r="D229" t="s"/>
-      <c r="E229" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B230" t="s">
-        <v>53</v>
-      </c>
-      <c r="C230" t="s">
-        <v>670</v>
-      </c>
-      <c r="D230" t="s"/>
-      <c r="E230" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B231" t="s">
-        <v>41</v>
-      </c>
-      <c r="C231" t="s">
-        <v>670</v>
-      </c>
-      <c r="D231" t="s"/>
-      <c r="E231" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B232" t="s">
-        <v>553</v>
-      </c>
-      <c r="C232" t="s">
-        <v>670</v>
-      </c>
-      <c r="D232" t="s"/>
-      <c r="E232" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B233" t="s">
-        <v>46</v>
-      </c>
-      <c r="C233" t="s">
-        <v>862</v>
-      </c>
-      <c r="D233" t="s"/>
-      <c r="E233" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B234" t="s">
-        <v>44</v>
-      </c>
-      <c r="C234" t="s">
-        <v>856</v>
-      </c>
-      <c r="D234" t="s"/>
-      <c r="E234" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B235" t="s">
-        <v>42</v>
-      </c>
-      <c r="C235" t="s">
-        <v>856</v>
-      </c>
-      <c r="D235" t="s"/>
-      <c r="E235" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B236" t="s">
-        <v>53</v>
-      </c>
-      <c r="C236" t="s">
-        <v>856</v>
-      </c>
-      <c r="D236" t="s"/>
-      <c r="E236" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B237" t="s">
-        <v>41</v>
-      </c>
-      <c r="C237" t="s">
-        <v>856</v>
-      </c>
-      <c r="D237" t="s"/>
-      <c r="E237" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B238" t="s">
-        <v>553</v>
-      </c>
-      <c r="C238" t="s">
-        <v>856</v>
-      </c>
-      <c r="D238" t="s"/>
-      <c r="E238" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B239" t="s">
-        <v>580</v>
-      </c>
-      <c r="C239" t="s">
-        <v>856</v>
-      </c>
-      <c r="D239" t="s"/>
-      <c r="E239" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B240" t="s">
-        <v>539</v>
-      </c>
-      <c r="C240" t="s">
-        <v>856</v>
-      </c>
-      <c r="D240" t="s"/>
-      <c r="E240" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B241" t="s">
+      <c r="F175" t="s">
         <v>858</v>
-      </c>
-      <c r="C241" t="s">
-        <v>856</v>
-      </c>
-      <c r="D241" t="s"/>
-      <c r="E241" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B242" t="s">
-        <v>860</v>
-      </c>
-      <c r="C242" t="s">
-        <v>856</v>
-      </c>
-      <c r="D242" t="s"/>
-      <c r="E242" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B243" t="s">
-        <v>580</v>
-      </c>
-      <c r="C243" t="s">
-        <v>670</v>
-      </c>
-      <c r="D243" t="s"/>
-      <c r="E243" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B244" t="s">
-        <v>539</v>
-      </c>
-      <c r="C244" t="s">
-        <v>670</v>
-      </c>
-      <c r="D244" t="s"/>
-      <c r="E244" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B245" t="s">
-        <v>858</v>
-      </c>
-      <c r="C245" t="s">
-        <v>670</v>
-      </c>
-      <c r="D245" t="s"/>
-      <c r="E245" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B246" t="s">
-        <v>860</v>
-      </c>
-      <c r="C246" t="s">
-        <v>670</v>
-      </c>
-      <c r="D246" t="s"/>
-      <c r="E246" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B247" t="s">
-        <v>553</v>
-      </c>
-      <c r="C247" t="s">
-        <v>862</v>
-      </c>
-      <c r="D247" t="s"/>
-      <c r="E247" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B248" t="s">
-        <v>580</v>
-      </c>
-      <c r="C248" t="s">
-        <v>856</v>
-      </c>
-      <c r="D248" t="s"/>
-      <c r="E248" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B249" t="s">
-        <v>539</v>
-      </c>
-      <c r="C249" t="s">
-        <v>856</v>
-      </c>
-      <c r="D249" t="s"/>
-      <c r="E249" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B250" t="s">
-        <v>858</v>
-      </c>
-      <c r="C250" t="s">
-        <v>856</v>
-      </c>
-      <c r="D250" t="s"/>
-      <c r="E250" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="A251" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B251" t="s">
-        <v>44</v>
-      </c>
-      <c r="C251" t="s">
-        <v>856</v>
-      </c>
-      <c r="D251" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E251" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="A252" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B252" t="s">
-        <v>53</v>
-      </c>
-      <c r="C252" t="s">
-        <v>856</v>
-      </c>
-      <c r="D252" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E252" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B253" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C253" t="s">
-        <v>862</v>
-      </c>
-      <c r="D253" t="s"/>
-      <c r="E253" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B254" t="s">
-        <v>840</v>
-      </c>
-      <c r="C254" t="s">
-        <v>862</v>
-      </c>
-      <c r="D254" t="s"/>
-      <c r="E254" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B255" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C255" t="s">
-        <v>862</v>
-      </c>
-      <c r="D255" t="s"/>
-      <c r="E255" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B256" t="s">
-        <v>429</v>
-      </c>
-      <c r="C256" t="s">
-        <v>862</v>
-      </c>
-      <c r="D256" t="s"/>
-      <c r="E256" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B257" t="s">
-        <v>46</v>
-      </c>
-      <c r="C257" t="s">
-        <v>862</v>
-      </c>
-      <c r="D257" t="s"/>
-      <c r="E257" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B258" t="s">
-        <v>45</v>
-      </c>
-      <c r="C258" t="s">
-        <v>862</v>
-      </c>
-      <c r="D258" t="s"/>
-      <c r="E258" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B259" t="s">
-        <v>42</v>
-      </c>
-      <c r="C259" t="s">
-        <v>862</v>
-      </c>
-      <c r="D259" t="s"/>
-      <c r="E259" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B260" t="s">
-        <v>41</v>
-      </c>
-      <c r="C260" t="s">
-        <v>862</v>
-      </c>
-      <c r="D260" t="s"/>
-      <c r="E260" t="s">
-        <v>1206</v>
       </c>
     </row>
   </sheetData>
